--- a/template/idXXX_YY/patient.xlsx
+++ b/template/idXXX_YY/patient.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sip/patient_sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sip/projects/pipeline/template/idXXX_YY/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Bad channels</t>
-  </si>
-  <si>
-    <t>Seizure type</t>
   </si>
   <si>
     <t>Notes</t>
@@ -338,11 +335,17 @@
   <si>
     <t>Filename 1</t>
   </si>
+  <si>
+    <t>Recording type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -529,9 +532,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -539,16 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,6 +585,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -990,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1020,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1"/>
@@ -2046,10 +2050,10 @@
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="23"/>
       <c r="H2"/>
@@ -3072,10 +3076,10 @@
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="23"/>
       <c r="H3"/>
@@ -4098,969 +4102,974 @@
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="5"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="5"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="5"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="5"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="5"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="5"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="5"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="5"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="5"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
+      <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="5"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="5"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="5"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="5"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="5"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="24"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="31"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="30"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="24"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="31"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="24"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="31"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="30"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="24"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="31"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="30"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="24"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="31"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="30"/>
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="24"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="31"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="24"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="31"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="30"/>
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="24"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="31"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="30"/>
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="24"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="31"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="30"/>
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="24"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="31"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="24"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="31"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="30"/>
       <c r="G110" s="24"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E99" xr:uid="{4C3EFB26-DEF4-544D-B021-F1C5CA6DE4AE}">
+      <formula1>"Spontaneous seizure,Stimulated seizure,Interictal,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
@@ -5074,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O310"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5083,70 +5092,70 @@
     <col min="1" max="1" width="20.1640625"/>
     <col min="2" max="5" width="32.33203125"/>
     <col min="6" max="6" width="32.33203125" style="9"/>
-    <col min="7" max="7" width="23" style="40"/>
+    <col min="7" max="7" width="23" style="37"/>
     <col min="8" max="8" width="12.5" style="10"/>
-    <col min="9" max="9" width="7" style="42"/>
-    <col min="10" max="10" width="28.33203125" style="34"/>
+    <col min="9" max="9" width="7" style="39"/>
+    <col min="10" max="10" width="28.33203125" style="32"/>
     <col min="11" max="11" width="12.6640625" style="10"/>
-    <col min="12" max="12" width="8.1640625" style="34"/>
-    <col min="13" max="13" width="30.6640625" style="34"/>
+    <col min="12" max="12" width="8.1640625" style="32"/>
+    <col min="13" max="13" width="30.6640625" style="32"/>
     <col min="14" max="14" width="11.83203125" style="11"/>
-    <col min="15" max="15" width="11.83203125" style="45"/>
+    <col min="15" max="15" width="11.83203125" style="42"/>
     <col min="16" max="1025" width="11.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
+      <c r="A1" s="32"/>
       <c r="B1" s="59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
       <c r="F1" s="59"/>
-      <c r="G1" s="35"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="60"/>
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
-      <c r="N1" s="38"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="61" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="61" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" s="61"/>
-      <c r="N2" s="38"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
@@ -5155,22 +5164,22 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="39" t="str">
+      <c r="G3" s="36" t="str">
         <f t="shared" ref="G3:G66" si="0">IF(ISBLANK(A3),"",A3)</f>
         <v/>
       </c>
       <c r="H3" s="16"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="34" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="34" t="s">
-        <v>34</v>
-      </c>
       <c r="N3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -5180,22 +5189,22 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="39" t="str">
+      <c r="G4" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H4" s="16"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="34" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -5205,22 +5214,22 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="39" t="str">
+      <c r="G5" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="34" t="s">
-        <v>38</v>
-      </c>
       <c r="N5" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -5230,22 +5239,22 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="39" t="str">
+      <c r="G6" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="34" t="s">
-        <v>40</v>
-      </c>
       <c r="N6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -5255,22 +5264,22 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="39" t="str">
+      <c r="G7" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="34" t="s">
-        <v>42</v>
-      </c>
       <c r="N7" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -5280,22 +5289,22 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="39" t="str">
+      <c r="G8" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H8" s="16"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="34" t="s">
-        <v>44</v>
-      </c>
       <c r="N8" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -5305,22 +5314,22 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="39" t="str">
+      <c r="G9" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="16"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="34" t="s">
+      <c r="I9" s="38"/>
+      <c r="J9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="34" t="s">
-        <v>46</v>
-      </c>
       <c r="N9" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -5330,22 +5339,22 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="39" t="str">
+      <c r="G10" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="34" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="34" t="s">
-        <v>48</v>
-      </c>
       <c r="N10" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -5355,22 +5364,22 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="39" t="str">
+      <c r="G11" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="34" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="N11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -5380,22 +5389,22 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="39" t="str">
+      <c r="G12" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="34" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="34" t="s">
-        <v>52</v>
-      </c>
       <c r="N12" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -5405,22 +5414,22 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="39" t="str">
+      <c r="G13" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="34" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="34" t="s">
-        <v>54</v>
-      </c>
       <c r="N13" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -5430,22 +5439,22 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="39" t="str">
+      <c r="G14" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="34" t="s">
+      <c r="I14" s="38"/>
+      <c r="J14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="34" t="s">
-        <v>56</v>
-      </c>
       <c r="N14" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -5455,24 +5464,24 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="39" t="str">
+      <c r="G15" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="34" t="s">
-        <v>58</v>
-      </c>
       <c r="N15" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -5482,22 +5491,22 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="39" t="str">
+      <c r="G16" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H16" s="16"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="34" t="s">
+      <c r="I16" s="38"/>
+      <c r="J16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="34" t="s">
-        <v>60</v>
-      </c>
       <c r="N16" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -5507,22 +5516,22 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="39" t="str">
+      <c r="G17" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H17" s="16"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="34" t="s">
+      <c r="I17" s="38"/>
+      <c r="J17" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="34" t="s">
-        <v>62</v>
-      </c>
       <c r="N17" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -5532,22 +5541,22 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="39" t="str">
+      <c r="G18" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H18" s="16"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="34" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="N18" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -5557,22 +5566,22 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="39" t="str">
+      <c r="G19" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="34" t="s">
+      <c r="I19" s="38"/>
+      <c r="J19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="34" t="s">
-        <v>66</v>
-      </c>
       <c r="N19" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -5582,22 +5591,22 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="39" t="str">
+      <c r="G20" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="34" t="s">
+      <c r="I20" s="38"/>
+      <c r="J20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="34" t="s">
-        <v>68</v>
-      </c>
       <c r="N20" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -5607,22 +5616,22 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="39" t="str">
+      <c r="G21" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="34" t="s">
+      <c r="I21" s="38"/>
+      <c r="J21" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="34" t="s">
-        <v>70</v>
-      </c>
       <c r="N21" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -5632,22 +5641,22 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="39" t="str">
+      <c r="G22" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H22" s="16"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="34" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="34" t="s">
-        <v>72</v>
-      </c>
       <c r="N22" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -5657,22 +5666,22 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="39" t="str">
+      <c r="G23" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H23" s="16"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="34" t="s">
+      <c r="I23" s="38"/>
+      <c r="J23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="34" t="s">
-        <v>74</v>
-      </c>
       <c r="N23" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -5682,22 +5691,22 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="39" t="str">
+      <c r="G24" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H24" s="16"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="34" t="s">
+      <c r="I24" s="38"/>
+      <c r="J24" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="34" t="s">
-        <v>76</v>
-      </c>
       <c r="N24" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -5707,22 +5716,22 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="39" t="str">
+      <c r="G25" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H25" s="16"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="34" t="s">
+      <c r="I25" s="38"/>
+      <c r="J25" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="34" t="s">
-        <v>78</v>
-      </c>
       <c r="N25" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -5732,22 +5741,22 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="39" t="str">
+      <c r="G26" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H26" s="16"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="34" t="s">
+      <c r="I26" s="38"/>
+      <c r="J26" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="34" t="s">
-        <v>80</v>
-      </c>
       <c r="N26" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -5757,22 +5766,22 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="39" t="str">
+      <c r="G27" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H27" s="16"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="34" t="s">
+      <c r="I27" s="38"/>
+      <c r="J27" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="34" t="s">
-        <v>82</v>
-      </c>
       <c r="N27" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -5782,22 +5791,22 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="39" t="str">
+      <c r="G28" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H28" s="16"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="34" t="s">
+      <c r="I28" s="38"/>
+      <c r="J28" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="34" t="s">
-        <v>84</v>
-      </c>
       <c r="N28" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -5807,22 +5816,22 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="39" t="str">
+      <c r="G29" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H29" s="16"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="34" t="s">
+      <c r="I29" s="38"/>
+      <c r="J29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="N29" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -5832,22 +5841,22 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="39" t="str">
+      <c r="G30" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H30" s="16"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="34" t="s">
+      <c r="I30" s="38"/>
+      <c r="J30" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="N30" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -5857,22 +5866,22 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="39" t="str">
+      <c r="G31" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H31" s="16"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="34" t="s">
+      <c r="I31" s="38"/>
+      <c r="J31" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="34" t="s">
-        <v>90</v>
-      </c>
       <c r="N31" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -5882,22 +5891,22 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="39" t="str">
+      <c r="G32" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H32" s="16"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="34" t="s">
+      <c r="I32" s="38"/>
+      <c r="J32" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="34" t="s">
-        <v>92</v>
-      </c>
       <c r="N32" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -5907,22 +5916,22 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="39" t="str">
+      <c r="G33" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H33" s="16"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="34" t="s">
+      <c r="I33" s="38"/>
+      <c r="J33" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="34" t="s">
-        <v>94</v>
-      </c>
       <c r="N33" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -5932,22 +5941,22 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="39" t="str">
+      <c r="G34" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H34" s="16"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="34" t="s">
+      <c r="I34" s="38"/>
+      <c r="J34" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="34" t="s">
-        <v>96</v>
-      </c>
       <c r="N34" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -5957,22 +5966,22 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="39" t="str">
+      <c r="G35" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H35" s="16"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="34" t="s">
+      <c r="I35" s="38"/>
+      <c r="J35" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="34" t="s">
-        <v>98</v>
-      </c>
       <c r="N35" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -5982,22 +5991,22 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="39" t="str">
+      <c r="G36" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H36" s="16"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="34" t="s">
+      <c r="I36" s="38"/>
+      <c r="J36" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="34" t="s">
-        <v>100</v>
-      </c>
       <c r="N36" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -6007,15 +6016,15 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="39" t="str">
+      <c r="G37" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H37" s="16"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="44"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
@@ -6024,22 +6033,22 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="39" t="str">
+      <c r="G38" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H38" s="16"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="43" t="s">
+      <c r="I38" s="38"/>
+      <c r="J38" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="34" t="s">
-        <v>18</v>
-      </c>
       <c r="N38" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -6049,22 +6058,22 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="39" t="str">
+      <c r="G39" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H39" s="16"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="43" t="s">
+      <c r="I39" s="38"/>
+      <c r="J39" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="34" t="s">
-        <v>20</v>
-      </c>
       <c r="N39" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.15">
@@ -6074,24 +6083,24 @@
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="39" t="str">
+      <c r="G40" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H40" s="16"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="43" t="s">
+      <c r="I40" s="38"/>
+      <c r="J40" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="34" t="s">
-        <v>22</v>
-      </c>
       <c r="N40" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="O40" s="43"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="19"/>
@@ -6100,22 +6109,22 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="39" t="str">
+      <c r="G41" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H41" s="16"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="43" t="s">
+      <c r="I41" s="38"/>
+      <c r="J41" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="34" t="s">
-        <v>24</v>
-      </c>
       <c r="N41" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -6125,22 +6134,22 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="39" t="str">
+      <c r="G42" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H42" s="16"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="43" t="s">
+      <c r="I42" s="38"/>
+      <c r="J42" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="34" t="s">
-        <v>26</v>
-      </c>
       <c r="N42" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
@@ -6150,22 +6159,22 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="39" t="str">
+      <c r="G43" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H43" s="16"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="43" t="s">
+      <c r="I43" s="38"/>
+      <c r="J43" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="17"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="34" t="s">
-        <v>28</v>
-      </c>
       <c r="N43" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
@@ -6175,22 +6184,22 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="39" t="str">
+      <c r="G44" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H44" s="16"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="43" t="s">
+      <c r="I44" s="38"/>
+      <c r="J44" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="34" t="s">
-        <v>30</v>
-      </c>
       <c r="N44" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -6200,22 +6209,22 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="39" t="str">
+      <c r="G45" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H45" s="16"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="43" t="s">
+      <c r="I45" s="38"/>
+      <c r="J45" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="N45" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
@@ -6225,16 +6234,16 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="39" t="str">
+      <c r="G46" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H46" s="16"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="38"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="35"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
@@ -6243,16 +6252,16 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="39" t="str">
+      <c r="G47" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H47" s="16"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="38"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="35"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
@@ -6261,16 +6270,16 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="39" t="str">
+      <c r="G48" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H48" s="16"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="38"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="35"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
@@ -6279,13 +6288,13 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="39" t="str">
+      <c r="G49" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J49" s="57"/>
       <c r="K49" s="57"/>
@@ -6300,7 +6309,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="39" t="str">
+      <c r="G50" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6319,7 +6328,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="39" t="str">
+      <c r="G51" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6338,7 +6347,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="39" t="str">
+      <c r="G52" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6357,7 +6366,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="39" t="str">
+      <c r="G53" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6376,7 +6385,7 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="39" t="str">
+      <c r="G54" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6395,7 +6404,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="39" t="str">
+      <c r="G55" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6414,7 +6423,7 @@
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="39" t="str">
+      <c r="G56" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6433,7 +6442,7 @@
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="39" t="str">
+      <c r="G57" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6452,16 +6461,16 @@
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="39" t="str">
+      <c r="G58" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H58" s="17"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="38"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="35"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="19"/>
@@ -6470,16 +6479,16 @@
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="15"/>
-      <c r="G59" s="39" t="str">
+      <c r="G59" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H59" s="17"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="38"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="35"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="19"/>
@@ -6488,16 +6497,16 @@
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="39" t="str">
+      <c r="G60" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H60" s="17"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="38"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="35"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="19"/>
@@ -6506,16 +6515,16 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="39" t="str">
+      <c r="G61" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H61" s="17"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="38"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="35"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="19"/>
@@ -6524,16 +6533,16 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="39" t="str">
+      <c r="G62" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H62" s="17"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="38"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="35"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="19"/>
@@ -6542,16 +6551,16 @@
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="39" t="str">
+      <c r="G63" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H63" s="17"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="38"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="35"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="19"/>
@@ -6560,16 +6569,16 @@
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="39" t="str">
+      <c r="G64" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H64" s="17"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="38"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="35"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="19"/>
@@ -6578,16 +6587,16 @@
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="15"/>
-      <c r="G65" s="39" t="str">
+      <c r="G65" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H65" s="17"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="38"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="35"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="19"/>
@@ -6596,16 +6605,16 @@
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="15"/>
-      <c r="G66" s="39" t="str">
+      <c r="G66" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H66" s="17"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="38"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="35"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="19"/>
@@ -6614,16 +6623,16 @@
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="15"/>
-      <c r="G67" s="39" t="str">
+      <c r="G67" s="36" t="str">
         <f t="shared" ref="G67:G130" si="1">IF(ISBLANK(A67),"",A67)</f>
         <v/>
       </c>
       <c r="H67" s="17"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="38"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="35"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="19"/>
@@ -6632,16 +6641,16 @@
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="15"/>
-      <c r="G68" s="39" t="str">
+      <c r="G68" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H68" s="17"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="38"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="35"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="19"/>
@@ -6650,16 +6659,16 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="15"/>
-      <c r="G69" s="39" t="str">
+      <c r="G69" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H69" s="17"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="38"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="35"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="19"/>
@@ -6668,16 +6677,16 @@
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="39" t="str">
+      <c r="G70" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H70" s="17"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="51"/>
-      <c r="N70" s="38"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="35"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="19"/>
@@ -6686,16 +6695,16 @@
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="15"/>
-      <c r="G71" s="39" t="str">
+      <c r="G71" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H71" s="17"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="38"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="35"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="19"/>
@@ -6704,16 +6713,16 @@
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="39" t="str">
+      <c r="G72" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H72" s="17"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="38"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="35"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="19"/>
@@ -6722,16 +6731,16 @@
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="15"/>
-      <c r="G73" s="39" t="str">
+      <c r="G73" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H73" s="17"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="38"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="35"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="19"/>
@@ -6740,16 +6749,16 @@
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="39" t="str">
+      <c r="G74" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H74" s="17"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="51"/>
-      <c r="N74" s="38"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="35"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="19"/>
@@ -6758,16 +6767,16 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="15"/>
-      <c r="G75" s="39" t="str">
+      <c r="G75" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H75" s="17"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="38"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="35"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="19"/>
@@ -6776,16 +6785,16 @@
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="39" t="str">
+      <c r="G76" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H76" s="17"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="38"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="35"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="19"/>
@@ -6794,16 +6803,16 @@
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="39" t="str">
+      <c r="G77" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H77" s="17"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="38"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="35"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="19"/>
@@ -6812,16 +6821,16 @@
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="39" t="str">
+      <c r="G78" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H78" s="17"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="38"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="35"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="19"/>
@@ -6830,16 +6839,16 @@
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="15"/>
-      <c r="G79" s="39" t="str">
+      <c r="G79" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H79" s="17"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="38"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="35"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="19"/>
@@ -6848,16 +6857,16 @@
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="39" t="str">
+      <c r="G80" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H80" s="17"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="38"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="35"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="19"/>
@@ -6866,16 +6875,16 @@
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="39" t="str">
+      <c r="G81" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H81" s="17"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="38"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="35"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="19"/>
@@ -6884,16 +6893,16 @@
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="15"/>
-      <c r="G82" s="39" t="str">
+      <c r="G82" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H82" s="17"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="38"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="35"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="19"/>
@@ -6902,16 +6911,16 @@
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="15"/>
-      <c r="G83" s="39" t="str">
+      <c r="G83" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H83" s="17"/>
-      <c r="J83" s="51"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="51"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="38"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="35"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="19"/>
@@ -6920,16 +6929,16 @@
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="15"/>
-      <c r="G84" s="39" t="str">
+      <c r="G84" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H84" s="17"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="38"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="35"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="19"/>
@@ -6938,16 +6947,16 @@
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="15"/>
-      <c r="G85" s="39" t="str">
+      <c r="G85" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H85" s="17"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="51"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="38"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="35"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="19"/>
@@ -6956,16 +6965,16 @@
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="39" t="str">
+      <c r="G86" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H86" s="17"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="38"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="35"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="19"/>
@@ -6974,13 +6983,13 @@
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="15"/>
-      <c r="G87" s="39" t="str">
+      <c r="G87" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H87" s="17"/>
-      <c r="K87" s="44"/>
-      <c r="N87" s="38"/>
+      <c r="K87" s="41"/>
+      <c r="N87" s="35"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="19"/>
@@ -6989,13 +6998,13 @@
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="15"/>
-      <c r="G88" s="39" t="str">
+      <c r="G88" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H88" s="17"/>
-      <c r="K88" s="44"/>
-      <c r="N88" s="38"/>
+      <c r="K88" s="41"/>
+      <c r="N88" s="35"/>
     </row>
     <row r="89" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="19"/>
@@ -7004,17 +7013,17 @@
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="39" t="str">
+      <c r="G89" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H89" s="17"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="38"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+      <c r="N89" s="35"/>
     </row>
     <row r="90" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="19"/>
@@ -7023,17 +7032,17 @@
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="15"/>
-      <c r="G90" s="39" t="str">
+      <c r="G90" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H90" s="17"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="38"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="35"/>
     </row>
     <row r="91" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="19"/>
@@ -7042,17 +7051,17 @@
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="15"/>
-      <c r="G91" s="39" t="str">
+      <c r="G91" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H91" s="17"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="38"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
+      <c r="N91" s="35"/>
     </row>
     <row r="92" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="19"/>
@@ -7061,17 +7070,17 @@
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="15"/>
-      <c r="G92" s="39" t="str">
+      <c r="G92" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H92" s="17"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="38"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
+      <c r="N92" s="35"/>
     </row>
     <row r="93" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="19"/>
@@ -7080,17 +7089,17 @@
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="15"/>
-      <c r="G93" s="39" t="str">
+      <c r="G93" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H93" s="17"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="55"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="38"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
+      <c r="N93" s="35"/>
     </row>
     <row r="94" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="19"/>
@@ -7099,17 +7108,17 @@
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="15"/>
-      <c r="G94" s="39" t="str">
+      <c r="G94" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H94" s="17"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="55"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="55"/>
-      <c r="M94" s="55"/>
-      <c r="N94" s="38"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="35"/>
     </row>
     <row r="95" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="19"/>
@@ -7118,17 +7127,17 @@
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="39" t="str">
+      <c r="G95" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H95" s="17"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="55"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="55"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="38"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="52"/>
+      <c r="K95" s="52"/>
+      <c r="L95" s="52"/>
+      <c r="M95" s="52"/>
+      <c r="N95" s="35"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="19"/>
@@ -7137,13 +7146,13 @@
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="39" t="str">
+      <c r="G96" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H96" s="17"/>
-      <c r="K96" s="44"/>
-      <c r="N96" s="38"/>
+      <c r="K96" s="41"/>
+      <c r="N96" s="35"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="19"/>
@@ -7152,13 +7161,13 @@
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="15"/>
-      <c r="G97" s="39" t="str">
+      <c r="G97" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H97" s="17"/>
-      <c r="K97" s="44"/>
-      <c r="N97" s="38"/>
+      <c r="K97" s="41"/>
+      <c r="N97" s="35"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="19"/>
@@ -7167,13 +7176,13 @@
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="39" t="str">
+      <c r="G98" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H98" s="17"/>
-      <c r="K98" s="44"/>
-      <c r="N98" s="38"/>
+      <c r="K98" s="41"/>
+      <c r="N98" s="35"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="19"/>
@@ -7182,13 +7191,13 @@
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="15"/>
-      <c r="G99" s="39" t="str">
+      <c r="G99" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H99" s="17"/>
-      <c r="K99" s="44"/>
-      <c r="N99" s="38"/>
+      <c r="K99" s="41"/>
+      <c r="N99" s="35"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="19"/>
@@ -7197,13 +7206,13 @@
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="15"/>
-      <c r="G100" s="39" t="str">
+      <c r="G100" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H100" s="17"/>
-      <c r="K100" s="44"/>
-      <c r="N100" s="38"/>
+      <c r="K100" s="41"/>
+      <c r="N100" s="35"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="19"/>
@@ -7212,13 +7221,13 @@
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" s="15"/>
-      <c r="G101" s="39" t="str">
+      <c r="G101" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H101" s="17"/>
-      <c r="K101" s="44"/>
-      <c r="N101" s="38"/>
+      <c r="K101" s="41"/>
+      <c r="N101" s="35"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" s="19"/>
@@ -7227,16 +7236,16 @@
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="15"/>
-      <c r="G102" s="39" t="str">
+      <c r="G102" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H102" s="17"/>
-      <c r="K102" s="44"/>
-      <c r="M102" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="N102" s="38"/>
+      <c r="K102" s="41"/>
+      <c r="M102" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="N102" s="35"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" s="19"/>
@@ -7245,13 +7254,13 @@
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="15"/>
-      <c r="G103" s="39" t="str">
+      <c r="G103" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H103" s="17"/>
-      <c r="K103" s="44"/>
-      <c r="N103" s="38"/>
+      <c r="K103" s="41"/>
+      <c r="N103" s="35"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="19"/>
@@ -7260,13 +7269,13 @@
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="15"/>
-      <c r="G104" s="39" t="str">
+      <c r="G104" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H104" s="17"/>
-      <c r="K104" s="44"/>
-      <c r="N104" s="38"/>
+      <c r="K104" s="41"/>
+      <c r="N104" s="35"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" s="19"/>
@@ -7275,13 +7284,13 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="15"/>
-      <c r="G105" s="39" t="str">
+      <c r="G105" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H105" s="17"/>
-      <c r="K105" s="44"/>
-      <c r="N105" s="38"/>
+      <c r="K105" s="41"/>
+      <c r="N105" s="35"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="19"/>
@@ -7290,13 +7299,13 @@
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="15"/>
-      <c r="G106" s="39" t="str">
+      <c r="G106" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H106" s="17"/>
-      <c r="K106" s="44"/>
-      <c r="N106" s="38"/>
+      <c r="K106" s="41"/>
+      <c r="N106" s="35"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" s="19"/>
@@ -7305,13 +7314,13 @@
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="39" t="str">
+      <c r="G107" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H107" s="17"/>
-      <c r="K107" s="44"/>
-      <c r="N107" s="38"/>
+      <c r="K107" s="41"/>
+      <c r="N107" s="35"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" s="19"/>
@@ -7320,13 +7329,13 @@
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="39" t="str">
+      <c r="G108" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H108" s="17"/>
-      <c r="K108" s="44"/>
-      <c r="N108" s="38"/>
+      <c r="K108" s="41"/>
+      <c r="N108" s="35"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" s="19"/>
@@ -7335,13 +7344,13 @@
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="39" t="str">
+      <c r="G109" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H109" s="17"/>
-      <c r="K109" s="44"/>
-      <c r="N109" s="38"/>
+      <c r="K109" s="41"/>
+      <c r="N109" s="35"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="19"/>
@@ -7350,13 +7359,13 @@
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="39" t="str">
+      <c r="G110" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H110" s="17"/>
-      <c r="K110" s="44"/>
-      <c r="N110" s="38"/>
+      <c r="K110" s="41"/>
+      <c r="N110" s="35"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" s="19"/>
@@ -7365,13 +7374,13 @@
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="39" t="str">
+      <c r="G111" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H111" s="17"/>
-      <c r="K111" s="44"/>
-      <c r="N111" s="38"/>
+      <c r="K111" s="41"/>
+      <c r="N111" s="35"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" s="19"/>
@@ -7380,13 +7389,13 @@
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="39" t="str">
+      <c r="G112" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H112" s="17"/>
-      <c r="K112" s="44"/>
-      <c r="N112" s="38"/>
+      <c r="K112" s="41"/>
+      <c r="N112" s="35"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" s="19"/>
@@ -7395,13 +7404,13 @@
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="39" t="str">
+      <c r="G113" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H113" s="17"/>
-      <c r="K113" s="44"/>
-      <c r="N113" s="38"/>
+      <c r="K113" s="41"/>
+      <c r="N113" s="35"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" s="19"/>
@@ -7410,13 +7419,13 @@
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="39" t="str">
+      <c r="G114" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H114" s="17"/>
-      <c r="K114" s="44"/>
-      <c r="N114" s="38"/>
+      <c r="K114" s="41"/>
+      <c r="N114" s="35"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" s="19"/>
@@ -7425,13 +7434,13 @@
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="39" t="str">
+      <c r="G115" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H115" s="17"/>
-      <c r="K115" s="44"/>
-      <c r="N115" s="38"/>
+      <c r="K115" s="41"/>
+      <c r="N115" s="35"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" s="19"/>
@@ -7440,13 +7449,13 @@
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="39" t="str">
+      <c r="G116" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H116" s="17"/>
-      <c r="K116" s="44"/>
-      <c r="N116" s="38"/>
+      <c r="K116" s="41"/>
+      <c r="N116" s="35"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" s="19"/>
@@ -7455,13 +7464,13 @@
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="39" t="str">
+      <c r="G117" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H117" s="17"/>
-      <c r="K117" s="44"/>
-      <c r="N117" s="38"/>
+      <c r="K117" s="41"/>
+      <c r="N117" s="35"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="19"/>
@@ -7470,13 +7479,13 @@
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="39" t="str">
+      <c r="G118" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H118" s="17"/>
-      <c r="K118" s="44"/>
-      <c r="N118" s="38"/>
+      <c r="K118" s="41"/>
+      <c r="N118" s="35"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" s="19"/>
@@ -7485,13 +7494,13 @@
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="39" t="str">
+      <c r="G119" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H119" s="17"/>
-      <c r="K119" s="44"/>
-      <c r="N119" s="38"/>
+      <c r="K119" s="41"/>
+      <c r="N119" s="35"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" s="19"/>
@@ -7500,13 +7509,13 @@
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" s="15"/>
-      <c r="G120" s="39" t="str">
+      <c r="G120" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H120" s="17"/>
-      <c r="K120" s="44"/>
-      <c r="N120" s="38"/>
+      <c r="K120" s="41"/>
+      <c r="N120" s="35"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" s="19"/>
@@ -7515,13 +7524,13 @@
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
       <c r="F121" s="15"/>
-      <c r="G121" s="39" t="str">
+      <c r="G121" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H121" s="17"/>
-      <c r="K121" s="44"/>
-      <c r="N121" s="38"/>
+      <c r="K121" s="41"/>
+      <c r="N121" s="35"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" s="19"/>
@@ -7530,13 +7539,13 @@
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
       <c r="F122" s="15"/>
-      <c r="G122" s="39" t="str">
+      <c r="G122" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H122" s="17"/>
-      <c r="K122" s="44"/>
-      <c r="N122" s="38"/>
+      <c r="K122" s="41"/>
+      <c r="N122" s="35"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" s="19"/>
@@ -7545,13 +7554,13 @@
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="15"/>
-      <c r="G123" s="39" t="str">
+      <c r="G123" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H123" s="17"/>
-      <c r="K123" s="44"/>
-      <c r="N123" s="38"/>
+      <c r="K123" s="41"/>
+      <c r="N123" s="35"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" s="19"/>
@@ -7560,13 +7569,13 @@
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
       <c r="F124" s="15"/>
-      <c r="G124" s="39" t="str">
+      <c r="G124" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H124" s="17"/>
-      <c r="K124" s="44"/>
-      <c r="N124" s="38"/>
+      <c r="K124" s="41"/>
+      <c r="N124" s="35"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" s="19"/>
@@ -7575,13 +7584,13 @@
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" s="15"/>
-      <c r="G125" s="39" t="str">
+      <c r="G125" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H125" s="17"/>
-      <c r="K125" s="44"/>
-      <c r="N125" s="38"/>
+      <c r="K125" s="41"/>
+      <c r="N125" s="35"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="19"/>
@@ -7590,13 +7599,13 @@
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
       <c r="F126" s="15"/>
-      <c r="G126" s="39" t="str">
+      <c r="G126" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H126" s="17"/>
-      <c r="K126" s="44"/>
-      <c r="N126" s="38"/>
+      <c r="K126" s="41"/>
+      <c r="N126" s="35"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="19"/>
@@ -7605,13 +7614,13 @@
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
       <c r="F127" s="15"/>
-      <c r="G127" s="39" t="str">
+      <c r="G127" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H127" s="17"/>
-      <c r="K127" s="44"/>
-      <c r="N127" s="38"/>
+      <c r="K127" s="41"/>
+      <c r="N127" s="35"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" s="19"/>
@@ -7620,13 +7629,13 @@
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
       <c r="F128" s="15"/>
-      <c r="G128" s="39" t="str">
+      <c r="G128" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H128" s="17"/>
-      <c r="K128" s="44"/>
-      <c r="N128" s="38"/>
+      <c r="K128" s="41"/>
+      <c r="N128" s="35"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129" s="19"/>
@@ -7635,13 +7644,13 @@
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
       <c r="F129" s="15"/>
-      <c r="G129" s="39" t="str">
+      <c r="G129" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H129" s="17"/>
-      <c r="K129" s="44"/>
-      <c r="N129" s="38"/>
+      <c r="K129" s="41"/>
+      <c r="N129" s="35"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130" s="19"/>
@@ -7650,13 +7659,13 @@
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="39" t="str">
+      <c r="G130" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H130" s="17"/>
-      <c r="K130" s="44"/>
-      <c r="N130" s="38"/>
+      <c r="K130" s="41"/>
+      <c r="N130" s="35"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" s="19"/>
@@ -7665,13 +7674,13 @@
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
       <c r="F131" s="15"/>
-      <c r="G131" s="39" t="str">
+      <c r="G131" s="36" t="str">
         <f t="shared" ref="G131:G194" si="2">IF(ISBLANK(A131),"",A131)</f>
         <v/>
       </c>
       <c r="H131" s="17"/>
-      <c r="K131" s="44"/>
-      <c r="N131" s="38"/>
+      <c r="K131" s="41"/>
+      <c r="N131" s="35"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" s="19"/>
@@ -7680,13 +7689,13 @@
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
       <c r="F132" s="15"/>
-      <c r="G132" s="39" t="str">
+      <c r="G132" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H132" s="17"/>
-      <c r="K132" s="44"/>
-      <c r="N132" s="38"/>
+      <c r="K132" s="41"/>
+      <c r="N132" s="35"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" s="19"/>
@@ -7695,13 +7704,13 @@
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="15"/>
-      <c r="G133" s="39" t="str">
+      <c r="G133" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H133" s="17"/>
-      <c r="K133" s="44"/>
-      <c r="N133" s="38"/>
+      <c r="K133" s="41"/>
+      <c r="N133" s="35"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" s="19"/>
@@ -7710,13 +7719,13 @@
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
       <c r="F134" s="15"/>
-      <c r="G134" s="39" t="str">
+      <c r="G134" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H134" s="17"/>
-      <c r="K134" s="44"/>
-      <c r="N134" s="38"/>
+      <c r="K134" s="41"/>
+      <c r="N134" s="35"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" s="19"/>
@@ -7725,13 +7734,13 @@
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="15"/>
-      <c r="G135" s="39" t="str">
+      <c r="G135" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H135" s="17"/>
-      <c r="K135" s="44"/>
-      <c r="N135" s="38"/>
+      <c r="K135" s="41"/>
+      <c r="N135" s="35"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136" s="19"/>
@@ -7740,13 +7749,13 @@
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="15"/>
-      <c r="G136" s="39" t="str">
+      <c r="G136" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H136" s="17"/>
-      <c r="K136" s="44"/>
-      <c r="N136" s="38"/>
+      <c r="K136" s="41"/>
+      <c r="N136" s="35"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A137" s="19"/>
@@ -7755,13 +7764,13 @@
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
       <c r="F137" s="15"/>
-      <c r="G137" s="39" t="str">
+      <c r="G137" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H137" s="17"/>
-      <c r="K137" s="44"/>
-      <c r="N137" s="38"/>
+      <c r="K137" s="41"/>
+      <c r="N137" s="35"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138" s="19"/>
@@ -7770,13 +7779,13 @@
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
       <c r="F138" s="15"/>
-      <c r="G138" s="39" t="str">
+      <c r="G138" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H138" s="17"/>
-      <c r="K138" s="44"/>
-      <c r="N138" s="38"/>
+      <c r="K138" s="41"/>
+      <c r="N138" s="35"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139" s="19"/>
@@ -7785,13 +7794,13 @@
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="15"/>
-      <c r="G139" s="39" t="str">
+      <c r="G139" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H139" s="17"/>
-      <c r="K139" s="44"/>
-      <c r="N139" s="38"/>
+      <c r="K139" s="41"/>
+      <c r="N139" s="35"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" s="19"/>
@@ -7800,13 +7809,13 @@
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
       <c r="F140" s="15"/>
-      <c r="G140" s="39" t="str">
+      <c r="G140" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H140" s="17"/>
-      <c r="K140" s="44"/>
-      <c r="N140" s="38"/>
+      <c r="K140" s="41"/>
+      <c r="N140" s="35"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" s="19"/>
@@ -7815,13 +7824,13 @@
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
       <c r="F141" s="15"/>
-      <c r="G141" s="39" t="str">
+      <c r="G141" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H141" s="17"/>
-      <c r="K141" s="44"/>
-      <c r="N141" s="38"/>
+      <c r="K141" s="41"/>
+      <c r="N141" s="35"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142" s="19"/>
@@ -7830,13 +7839,13 @@
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="15"/>
-      <c r="G142" s="39" t="str">
+      <c r="G142" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H142" s="17"/>
-      <c r="K142" s="44"/>
-      <c r="N142" s="38"/>
+      <c r="K142" s="41"/>
+      <c r="N142" s="35"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143" s="19"/>
@@ -7845,13 +7854,13 @@
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="15"/>
-      <c r="G143" s="39" t="str">
+      <c r="G143" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H143" s="17"/>
-      <c r="K143" s="44"/>
-      <c r="N143" s="38"/>
+      <c r="K143" s="41"/>
+      <c r="N143" s="35"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144" s="19"/>
@@ -7860,13 +7869,13 @@
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="15"/>
-      <c r="G144" s="39" t="str">
+      <c r="G144" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H144" s="17"/>
-      <c r="K144" s="44"/>
-      <c r="N144" s="38"/>
+      <c r="K144" s="41"/>
+      <c r="N144" s="35"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145" s="19"/>
@@ -7875,13 +7884,13 @@
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="15"/>
-      <c r="G145" s="39" t="str">
+      <c r="G145" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H145" s="17"/>
-      <c r="K145" s="44"/>
-      <c r="N145" s="38"/>
+      <c r="K145" s="41"/>
+      <c r="N145" s="35"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A146" s="19"/>
@@ -7890,13 +7899,13 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="15"/>
-      <c r="G146" s="39" t="str">
+      <c r="G146" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H146" s="17"/>
-      <c r="K146" s="44"/>
-      <c r="N146" s="38"/>
+      <c r="K146" s="41"/>
+      <c r="N146" s="35"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A147" s="19"/>
@@ -7905,13 +7914,13 @@
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
       <c r="F147" s="15"/>
-      <c r="G147" s="39" t="str">
+      <c r="G147" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H147" s="17"/>
-      <c r="K147" s="44"/>
-      <c r="N147" s="38"/>
+      <c r="K147" s="41"/>
+      <c r="N147" s="35"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A148" s="19"/>
@@ -7920,13 +7929,13 @@
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
       <c r="F148" s="15"/>
-      <c r="G148" s="39" t="str">
+      <c r="G148" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H148" s="17"/>
-      <c r="K148" s="44"/>
-      <c r="N148" s="38"/>
+      <c r="K148" s="41"/>
+      <c r="N148" s="35"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A149" s="19"/>
@@ -7935,13 +7944,13 @@
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
       <c r="F149" s="15"/>
-      <c r="G149" s="39" t="str">
+      <c r="G149" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H149" s="17"/>
-      <c r="K149" s="44"/>
-      <c r="N149" s="38"/>
+      <c r="K149" s="41"/>
+      <c r="N149" s="35"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A150" s="19"/>
@@ -7950,13 +7959,13 @@
       <c r="D150" s="19"/>
       <c r="E150" s="19"/>
       <c r="F150" s="15"/>
-      <c r="G150" s="39" t="str">
+      <c r="G150" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H150" s="17"/>
-      <c r="K150" s="44"/>
-      <c r="N150" s="38"/>
+      <c r="K150" s="41"/>
+      <c r="N150" s="35"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A151" s="19"/>
@@ -7965,13 +7974,13 @@
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="15"/>
-      <c r="G151" s="39" t="str">
+      <c r="G151" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H151" s="17"/>
-      <c r="K151" s="44"/>
-      <c r="N151" s="38"/>
+      <c r="K151" s="41"/>
+      <c r="N151" s="35"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A152" s="19"/>
@@ -7980,13 +7989,13 @@
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
       <c r="F152" s="15"/>
-      <c r="G152" s="39" t="str">
+      <c r="G152" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H152" s="17"/>
-      <c r="K152" s="44"/>
-      <c r="N152" s="38"/>
+      <c r="K152" s="41"/>
+      <c r="N152" s="35"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" s="19"/>
@@ -7995,13 +8004,13 @@
       <c r="D153" s="19"/>
       <c r="E153" s="19"/>
       <c r="F153" s="15"/>
-      <c r="G153" s="39" t="str">
+      <c r="G153" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H153" s="17"/>
-      <c r="K153" s="44"/>
-      <c r="N153" s="38"/>
+      <c r="K153" s="41"/>
+      <c r="N153" s="35"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" s="19"/>
@@ -8010,13 +8019,13 @@
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
       <c r="F154" s="15"/>
-      <c r="G154" s="39" t="str">
+      <c r="G154" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H154" s="17"/>
-      <c r="K154" s="44"/>
-      <c r="N154" s="38"/>
+      <c r="K154" s="41"/>
+      <c r="N154" s="35"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A155" s="19"/>
@@ -8025,13 +8034,13 @@
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
       <c r="F155" s="15"/>
-      <c r="G155" s="39" t="str">
+      <c r="G155" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H155" s="17"/>
-      <c r="K155" s="44"/>
-      <c r="N155" s="38"/>
+      <c r="K155" s="41"/>
+      <c r="N155" s="35"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A156" s="19"/>
@@ -8040,13 +8049,13 @@
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
       <c r="F156" s="15"/>
-      <c r="G156" s="39" t="str">
+      <c r="G156" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H156" s="17"/>
-      <c r="K156" s="44"/>
-      <c r="N156" s="38"/>
+      <c r="K156" s="41"/>
+      <c r="N156" s="35"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A157" s="19"/>
@@ -8055,13 +8064,13 @@
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
       <c r="F157" s="15"/>
-      <c r="G157" s="39" t="str">
+      <c r="G157" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H157" s="17"/>
-      <c r="K157" s="44"/>
-      <c r="N157" s="38"/>
+      <c r="K157" s="41"/>
+      <c r="N157" s="35"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A158" s="19"/>
@@ -8070,13 +8079,13 @@
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
       <c r="F158" s="15"/>
-      <c r="G158" s="39" t="str">
+      <c r="G158" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H158" s="17"/>
-      <c r="K158" s="44"/>
-      <c r="N158" s="38"/>
+      <c r="K158" s="41"/>
+      <c r="N158" s="35"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A159" s="19"/>
@@ -8085,13 +8094,13 @@
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
       <c r="F159" s="15"/>
-      <c r="G159" s="39" t="str">
+      <c r="G159" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H159" s="17"/>
-      <c r="K159" s="44"/>
-      <c r="N159" s="38"/>
+      <c r="K159" s="41"/>
+      <c r="N159" s="35"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A160" s="19"/>
@@ -8100,13 +8109,13 @@
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
       <c r="F160" s="15"/>
-      <c r="G160" s="39" t="str">
+      <c r="G160" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H160" s="17"/>
-      <c r="K160" s="44"/>
-      <c r="N160" s="38"/>
+      <c r="K160" s="41"/>
+      <c r="N160" s="35"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A161" s="19"/>
@@ -8115,13 +8124,13 @@
       <c r="D161" s="19"/>
       <c r="E161" s="19"/>
       <c r="F161" s="15"/>
-      <c r="G161" s="39" t="str">
+      <c r="G161" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H161" s="17"/>
-      <c r="K161" s="44"/>
-      <c r="N161" s="38"/>
+      <c r="K161" s="41"/>
+      <c r="N161" s="35"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A162" s="19"/>
@@ -8130,13 +8139,13 @@
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
       <c r="F162" s="15"/>
-      <c r="G162" s="39" t="str">
+      <c r="G162" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H162" s="17"/>
-      <c r="K162" s="44"/>
-      <c r="N162" s="38"/>
+      <c r="K162" s="41"/>
+      <c r="N162" s="35"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A163" s="19"/>
@@ -8145,13 +8154,13 @@
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
       <c r="F163" s="15"/>
-      <c r="G163" s="39" t="str">
+      <c r="G163" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H163" s="17"/>
-      <c r="K163" s="44"/>
-      <c r="N163" s="38"/>
+      <c r="K163" s="41"/>
+      <c r="N163" s="35"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A164" s="19"/>
@@ -8160,13 +8169,13 @@
       <c r="D164" s="19"/>
       <c r="E164" s="19"/>
       <c r="F164" s="15"/>
-      <c r="G164" s="39" t="str">
+      <c r="G164" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H164" s="17"/>
-      <c r="K164" s="44"/>
-      <c r="N164" s="38"/>
+      <c r="K164" s="41"/>
+      <c r="N164" s="35"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A165" s="19"/>
@@ -8175,13 +8184,13 @@
       <c r="D165" s="19"/>
       <c r="E165" s="19"/>
       <c r="F165" s="15"/>
-      <c r="G165" s="39" t="str">
+      <c r="G165" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H165" s="17"/>
-      <c r="K165" s="44"/>
-      <c r="N165" s="38"/>
+      <c r="K165" s="41"/>
+      <c r="N165" s="35"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A166" s="19"/>
@@ -8190,13 +8199,13 @@
       <c r="D166" s="19"/>
       <c r="E166" s="19"/>
       <c r="F166" s="15"/>
-      <c r="G166" s="39" t="str">
+      <c r="G166" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H166" s="17"/>
-      <c r="K166" s="44"/>
-      <c r="N166" s="38"/>
+      <c r="K166" s="41"/>
+      <c r="N166" s="35"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A167" s="19"/>
@@ -8205,13 +8214,13 @@
       <c r="D167" s="19"/>
       <c r="E167" s="19"/>
       <c r="F167" s="15"/>
-      <c r="G167" s="39" t="str">
+      <c r="G167" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H167" s="17"/>
-      <c r="K167" s="44"/>
-      <c r="N167" s="38"/>
+      <c r="K167" s="41"/>
+      <c r="N167" s="35"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A168" s="19"/>
@@ -8220,13 +8229,13 @@
       <c r="D168" s="19"/>
       <c r="E168" s="19"/>
       <c r="F168" s="15"/>
-      <c r="G168" s="39" t="str">
+      <c r="G168" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H168" s="17"/>
-      <c r="K168" s="44"/>
-      <c r="N168" s="38"/>
+      <c r="K168" s="41"/>
+      <c r="N168" s="35"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A169" s="19"/>
@@ -8235,13 +8244,13 @@
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
       <c r="F169" s="15"/>
-      <c r="G169" s="39" t="str">
+      <c r="G169" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H169" s="17"/>
-      <c r="K169" s="44"/>
-      <c r="N169" s="38"/>
+      <c r="K169" s="41"/>
+      <c r="N169" s="35"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A170" s="19"/>
@@ -8250,13 +8259,13 @@
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
       <c r="F170" s="15"/>
-      <c r="G170" s="39" t="str">
+      <c r="G170" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H170" s="17"/>
-      <c r="K170" s="44"/>
-      <c r="N170" s="38"/>
+      <c r="K170" s="41"/>
+      <c r="N170" s="35"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A171" s="19"/>
@@ -8265,13 +8274,13 @@
       <c r="D171" s="19"/>
       <c r="E171" s="19"/>
       <c r="F171" s="15"/>
-      <c r="G171" s="39" t="str">
+      <c r="G171" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H171" s="17"/>
-      <c r="K171" s="44"/>
-      <c r="N171" s="38"/>
+      <c r="K171" s="41"/>
+      <c r="N171" s="35"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A172" s="19"/>
@@ -8280,13 +8289,13 @@
       <c r="D172" s="19"/>
       <c r="E172" s="19"/>
       <c r="F172" s="15"/>
-      <c r="G172" s="39" t="str">
+      <c r="G172" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H172" s="17"/>
-      <c r="K172" s="44"/>
-      <c r="N172" s="38"/>
+      <c r="K172" s="41"/>
+      <c r="N172" s="35"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A173" s="19"/>
@@ -8295,13 +8304,13 @@
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" s="15"/>
-      <c r="G173" s="39" t="str">
+      <c r="G173" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H173" s="17"/>
-      <c r="K173" s="44"/>
-      <c r="N173" s="38"/>
+      <c r="K173" s="41"/>
+      <c r="N173" s="35"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A174" s="19"/>
@@ -8310,13 +8319,13 @@
       <c r="D174" s="19"/>
       <c r="E174" s="19"/>
       <c r="F174" s="15"/>
-      <c r="G174" s="39" t="str">
+      <c r="G174" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H174" s="17"/>
-      <c r="K174" s="44"/>
-      <c r="N174" s="38"/>
+      <c r="K174" s="41"/>
+      <c r="N174" s="35"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A175" s="19"/>
@@ -8325,13 +8334,13 @@
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" s="15"/>
-      <c r="G175" s="39" t="str">
+      <c r="G175" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H175" s="17"/>
-      <c r="K175" s="44"/>
-      <c r="N175" s="38"/>
+      <c r="K175" s="41"/>
+      <c r="N175" s="35"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A176" s="19"/>
@@ -8340,13 +8349,13 @@
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" s="15"/>
-      <c r="G176" s="39" t="str">
+      <c r="G176" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H176" s="17"/>
-      <c r="K176" s="44"/>
-      <c r="N176" s="38"/>
+      <c r="K176" s="41"/>
+      <c r="N176" s="35"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A177" s="19"/>
@@ -8355,13 +8364,13 @@
       <c r="D177" s="19"/>
       <c r="E177" s="19"/>
       <c r="F177" s="15"/>
-      <c r="G177" s="39" t="str">
+      <c r="G177" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H177" s="17"/>
-      <c r="K177" s="44"/>
-      <c r="N177" s="38"/>
+      <c r="K177" s="41"/>
+      <c r="N177" s="35"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A178" s="19"/>
@@ -8370,13 +8379,13 @@
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" s="15"/>
-      <c r="G178" s="39" t="str">
+      <c r="G178" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H178" s="17"/>
-      <c r="K178" s="44"/>
-      <c r="N178" s="38"/>
+      <c r="K178" s="41"/>
+      <c r="N178" s="35"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A179" s="19"/>
@@ -8385,13 +8394,13 @@
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
       <c r="F179" s="15"/>
-      <c r="G179" s="39" t="str">
+      <c r="G179" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H179" s="17"/>
-      <c r="K179" s="44"/>
-      <c r="N179" s="38"/>
+      <c r="K179" s="41"/>
+      <c r="N179" s="35"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A180" s="19"/>
@@ -8400,13 +8409,13 @@
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" s="15"/>
-      <c r="G180" s="39" t="str">
+      <c r="G180" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H180" s="17"/>
-      <c r="K180" s="44"/>
-      <c r="N180" s="38"/>
+      <c r="K180" s="41"/>
+      <c r="N180" s="35"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A181" s="19"/>
@@ -8415,13 +8424,13 @@
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
       <c r="F181" s="15"/>
-      <c r="G181" s="39" t="str">
+      <c r="G181" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H181" s="17"/>
-      <c r="K181" s="44"/>
-      <c r="N181" s="38"/>
+      <c r="K181" s="41"/>
+      <c r="N181" s="35"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A182" s="19"/>
@@ -8430,13 +8439,13 @@
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" s="15"/>
-      <c r="G182" s="39" t="str">
+      <c r="G182" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H182" s="17"/>
-      <c r="K182" s="44"/>
-      <c r="N182" s="38"/>
+      <c r="K182" s="41"/>
+      <c r="N182" s="35"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A183" s="19"/>
@@ -8445,13 +8454,13 @@
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
       <c r="F183" s="15"/>
-      <c r="G183" s="39" t="str">
+      <c r="G183" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H183" s="17"/>
-      <c r="K183" s="44"/>
-      <c r="N183" s="38"/>
+      <c r="K183" s="41"/>
+      <c r="N183" s="35"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A184" s="19"/>
@@ -8460,13 +8469,13 @@
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" s="15"/>
-      <c r="G184" s="39" t="str">
+      <c r="G184" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H184" s="17"/>
-      <c r="K184" s="44"/>
-      <c r="N184" s="38"/>
+      <c r="K184" s="41"/>
+      <c r="N184" s="35"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A185" s="19"/>
@@ -8475,13 +8484,13 @@
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" s="15"/>
-      <c r="G185" s="39" t="str">
+      <c r="G185" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H185" s="17"/>
-      <c r="K185" s="44"/>
-      <c r="N185" s="38"/>
+      <c r="K185" s="41"/>
+      <c r="N185" s="35"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A186" s="19"/>
@@ -8490,13 +8499,13 @@
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" s="15"/>
-      <c r="G186" s="39" t="str">
+      <c r="G186" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H186" s="17"/>
-      <c r="K186" s="44"/>
-      <c r="N186" s="38"/>
+      <c r="K186" s="41"/>
+      <c r="N186" s="35"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A187" s="19"/>
@@ -8505,13 +8514,13 @@
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" s="15"/>
-      <c r="G187" s="39" t="str">
+      <c r="G187" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H187" s="17"/>
-      <c r="K187" s="44"/>
-      <c r="N187" s="38"/>
+      <c r="K187" s="41"/>
+      <c r="N187" s="35"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A188" s="14"/>
@@ -8520,13 +8529,13 @@
       <c r="D188" s="14"/>
       <c r="E188" s="14"/>
       <c r="F188" s="15"/>
-      <c r="G188" s="39" t="str">
+      <c r="G188" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H188" s="17"/>
-      <c r="K188" s="44"/>
-      <c r="N188" s="38"/>
+      <c r="K188" s="41"/>
+      <c r="N188" s="35"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A189" s="14"/>
@@ -8535,13 +8544,13 @@
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
       <c r="F189" s="15"/>
-      <c r="G189" s="39" t="str">
+      <c r="G189" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H189" s="17"/>
-      <c r="K189" s="44"/>
-      <c r="N189" s="38"/>
+      <c r="K189" s="41"/>
+      <c r="N189" s="35"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A190" s="14"/>
@@ -8550,13 +8559,13 @@
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
       <c r="F190" s="15"/>
-      <c r="G190" s="39" t="str">
+      <c r="G190" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H190" s="17"/>
-      <c r="K190" s="44"/>
-      <c r="N190" s="38"/>
+      <c r="K190" s="41"/>
+      <c r="N190" s="35"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A191" s="14"/>
@@ -8565,13 +8574,13 @@
       <c r="D191" s="14"/>
       <c r="E191" s="14"/>
       <c r="F191" s="15"/>
-      <c r="G191" s="39" t="str">
+      <c r="G191" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H191" s="17"/>
-      <c r="K191" s="44"/>
-      <c r="N191" s="38"/>
+      <c r="K191" s="41"/>
+      <c r="N191" s="35"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A192" s="14"/>
@@ -8580,13 +8589,13 @@
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
       <c r="F192" s="15"/>
-      <c r="G192" s="39" t="str">
+      <c r="G192" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H192" s="17"/>
-      <c r="K192" s="44"/>
-      <c r="N192" s="38"/>
+      <c r="K192" s="41"/>
+      <c r="N192" s="35"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A193" s="19"/>
@@ -8595,13 +8604,13 @@
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
       <c r="F193" s="15"/>
-      <c r="G193" s="39" t="str">
+      <c r="G193" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H193" s="17"/>
-      <c r="K193" s="44"/>
-      <c r="N193" s="38"/>
+      <c r="K193" s="41"/>
+      <c r="N193" s="35"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A194" s="19"/>
@@ -8610,13 +8619,13 @@
       <c r="D194" s="19"/>
       <c r="E194" s="19"/>
       <c r="F194" s="15"/>
-      <c r="G194" s="39" t="str">
+      <c r="G194" s="36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H194" s="17"/>
-      <c r="K194" s="44"/>
-      <c r="N194" s="38"/>
+      <c r="K194" s="41"/>
+      <c r="N194" s="35"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A195" s="19"/>
@@ -8625,13 +8634,13 @@
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" s="15"/>
-      <c r="G195" s="39" t="str">
+      <c r="G195" s="36" t="str">
         <f t="shared" ref="G195:G258" si="3">IF(ISBLANK(A195),"",A195)</f>
         <v/>
       </c>
       <c r="H195" s="17"/>
-      <c r="K195" s="44"/>
-      <c r="N195" s="38"/>
+      <c r="K195" s="41"/>
+      <c r="N195" s="35"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A196" s="19"/>
@@ -8640,13 +8649,13 @@
       <c r="D196" s="19"/>
       <c r="E196" s="19"/>
       <c r="F196" s="15"/>
-      <c r="G196" s="39" t="str">
+      <c r="G196" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H196" s="17"/>
-      <c r="K196" s="44"/>
-      <c r="N196" s="38"/>
+      <c r="K196" s="41"/>
+      <c r="N196" s="35"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A197" s="19"/>
@@ -8655,13 +8664,13 @@
       <c r="D197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" s="15"/>
-      <c r="G197" s="39" t="str">
+      <c r="G197" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H197" s="17"/>
-      <c r="K197" s="44"/>
-      <c r="N197" s="38"/>
+      <c r="K197" s="41"/>
+      <c r="N197" s="35"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A198" s="19"/>
@@ -8670,13 +8679,13 @@
       <c r="D198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" s="15"/>
-      <c r="G198" s="39" t="str">
+      <c r="G198" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H198" s="17"/>
-      <c r="K198" s="44"/>
-      <c r="N198" s="38"/>
+      <c r="K198" s="41"/>
+      <c r="N198" s="35"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A199" s="19"/>
@@ -8685,13 +8694,13 @@
       <c r="D199" s="19"/>
       <c r="E199" s="19"/>
       <c r="F199" s="15"/>
-      <c r="G199" s="39" t="str">
+      <c r="G199" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H199" s="17"/>
-      <c r="K199" s="44"/>
-      <c r="N199" s="38"/>
+      <c r="K199" s="41"/>
+      <c r="N199" s="35"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A200" s="19"/>
@@ -8700,13 +8709,13 @@
       <c r="D200" s="19"/>
       <c r="E200" s="19"/>
       <c r="F200" s="15"/>
-      <c r="G200" s="39" t="str">
+      <c r="G200" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H200" s="17"/>
-      <c r="K200" s="44"/>
-      <c r="N200" s="38"/>
+      <c r="K200" s="41"/>
+      <c r="N200" s="35"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A201" s="19"/>
@@ -8715,13 +8724,13 @@
       <c r="D201" s="19"/>
       <c r="E201" s="19"/>
       <c r="F201" s="15"/>
-      <c r="G201" s="39" t="str">
+      <c r="G201" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H201" s="17"/>
-      <c r="K201" s="44"/>
-      <c r="N201" s="38"/>
+      <c r="K201" s="41"/>
+      <c r="N201" s="35"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A202" s="19"/>
@@ -8730,13 +8739,13 @@
       <c r="D202" s="19"/>
       <c r="E202" s="19"/>
       <c r="F202" s="15"/>
-      <c r="G202" s="39" t="str">
+      <c r="G202" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H202" s="17"/>
-      <c r="K202" s="44"/>
-      <c r="N202" s="38"/>
+      <c r="K202" s="41"/>
+      <c r="N202" s="35"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A203" s="19"/>
@@ -8745,13 +8754,13 @@
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
       <c r="F203" s="15"/>
-      <c r="G203" s="39" t="str">
+      <c r="G203" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H203" s="17"/>
-      <c r="K203" s="44"/>
-      <c r="N203" s="38"/>
+      <c r="K203" s="41"/>
+      <c r="N203" s="35"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A204" s="19"/>
@@ -8760,13 +8769,13 @@
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
       <c r="F204" s="15"/>
-      <c r="G204" s="39" t="str">
+      <c r="G204" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H204" s="17"/>
-      <c r="K204" s="44"/>
-      <c r="N204" s="38"/>
+      <c r="K204" s="41"/>
+      <c r="N204" s="35"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A205" s="19"/>
@@ -8775,13 +8784,13 @@
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" s="15"/>
-      <c r="G205" s="39" t="str">
+      <c r="G205" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H205" s="17"/>
-      <c r="K205" s="44"/>
-      <c r="N205" s="38"/>
+      <c r="K205" s="41"/>
+      <c r="N205" s="35"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A206" s="19"/>
@@ -8790,13 +8799,13 @@
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" s="15"/>
-      <c r="G206" s="39" t="str">
+      <c r="G206" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H206" s="17"/>
-      <c r="K206" s="44"/>
-      <c r="N206" s="38"/>
+      <c r="K206" s="41"/>
+      <c r="N206" s="35"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A207" s="19"/>
@@ -8805,13 +8814,13 @@
       <c r="D207" s="19"/>
       <c r="E207" s="19"/>
       <c r="F207" s="15"/>
-      <c r="G207" s="39" t="str">
+      <c r="G207" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H207" s="17"/>
-      <c r="K207" s="44"/>
-      <c r="N207" s="38"/>
+      <c r="K207" s="41"/>
+      <c r="N207" s="35"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A208" s="19"/>
@@ -8820,13 +8829,13 @@
       <c r="D208" s="19"/>
       <c r="E208" s="19"/>
       <c r="F208" s="15"/>
-      <c r="G208" s="39" t="str">
+      <c r="G208" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H208" s="17"/>
-      <c r="K208" s="44"/>
-      <c r="N208" s="38"/>
+      <c r="K208" s="41"/>
+      <c r="N208" s="35"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A209" s="19"/>
@@ -8835,13 +8844,13 @@
       <c r="D209" s="19"/>
       <c r="E209" s="19"/>
       <c r="F209" s="15"/>
-      <c r="G209" s="39" t="str">
+      <c r="G209" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H209" s="17"/>
-      <c r="K209" s="44"/>
-      <c r="N209" s="38"/>
+      <c r="K209" s="41"/>
+      <c r="N209" s="35"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A210" s="19"/>
@@ -8850,13 +8859,13 @@
       <c r="D210" s="19"/>
       <c r="E210" s="19"/>
       <c r="F210" s="15"/>
-      <c r="G210" s="39" t="str">
+      <c r="G210" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H210" s="17"/>
-      <c r="K210" s="44"/>
-      <c r="N210" s="38"/>
+      <c r="K210" s="41"/>
+      <c r="N210" s="35"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A211" s="19"/>
@@ -8865,13 +8874,13 @@
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" s="15"/>
-      <c r="G211" s="39" t="str">
+      <c r="G211" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H211" s="17"/>
-      <c r="K211" s="44"/>
-      <c r="N211" s="38"/>
+      <c r="K211" s="41"/>
+      <c r="N211" s="35"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A212" s="19"/>
@@ -8880,13 +8889,13 @@
       <c r="D212" s="19"/>
       <c r="E212" s="19"/>
       <c r="F212" s="15"/>
-      <c r="G212" s="39" t="str">
+      <c r="G212" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H212" s="17"/>
-      <c r="K212" s="44"/>
-      <c r="N212" s="38"/>
+      <c r="K212" s="41"/>
+      <c r="N212" s="35"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A213" s="19"/>
@@ -8895,13 +8904,13 @@
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" s="15"/>
-      <c r="G213" s="39" t="str">
+      <c r="G213" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H213" s="17"/>
-      <c r="K213" s="44"/>
-      <c r="N213" s="38"/>
+      <c r="K213" s="41"/>
+      <c r="N213" s="35"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A214" s="19"/>
@@ -8910,13 +8919,13 @@
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
       <c r="F214" s="15"/>
-      <c r="G214" s="39" t="str">
+      <c r="G214" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H214" s="17"/>
-      <c r="K214" s="44"/>
-      <c r="N214" s="38"/>
+      <c r="K214" s="41"/>
+      <c r="N214" s="35"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A215" s="19"/>
@@ -8925,13 +8934,13 @@
       <c r="D215" s="19"/>
       <c r="E215" s="19"/>
       <c r="F215" s="15"/>
-      <c r="G215" s="39" t="str">
+      <c r="G215" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H215" s="17"/>
-      <c r="K215" s="44"/>
-      <c r="N215" s="38"/>
+      <c r="K215" s="41"/>
+      <c r="N215" s="35"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A216" s="19"/>
@@ -8940,13 +8949,13 @@
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" s="15"/>
-      <c r="G216" s="39" t="str">
+      <c r="G216" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H216" s="17"/>
-      <c r="K216" s="44"/>
-      <c r="N216" s="38"/>
+      <c r="K216" s="41"/>
+      <c r="N216" s="35"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A217" s="19"/>
@@ -8955,13 +8964,13 @@
       <c r="D217" s="19"/>
       <c r="E217" s="19"/>
       <c r="F217" s="15"/>
-      <c r="G217" s="39" t="str">
+      <c r="G217" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H217" s="17"/>
-      <c r="K217" s="44"/>
-      <c r="N217" s="38"/>
+      <c r="K217" s="41"/>
+      <c r="N217" s="35"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A218" s="19"/>
@@ -8970,13 +8979,13 @@
       <c r="D218" s="19"/>
       <c r="E218" s="19"/>
       <c r="F218" s="15"/>
-      <c r="G218" s="39" t="str">
+      <c r="G218" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H218" s="17"/>
-      <c r="K218" s="44"/>
-      <c r="N218" s="38"/>
+      <c r="K218" s="41"/>
+      <c r="N218" s="35"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A219" s="19"/>
@@ -8985,13 +8994,13 @@
       <c r="D219" s="19"/>
       <c r="E219" s="19"/>
       <c r="F219" s="15"/>
-      <c r="G219" s="39" t="str">
+      <c r="G219" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H219" s="17"/>
-      <c r="K219" s="44"/>
-      <c r="N219" s="38"/>
+      <c r="K219" s="41"/>
+      <c r="N219" s="35"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A220" s="19"/>
@@ -9000,13 +9009,13 @@
       <c r="D220" s="19"/>
       <c r="E220" s="19"/>
       <c r="F220" s="15"/>
-      <c r="G220" s="39" t="str">
+      <c r="G220" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H220" s="17"/>
-      <c r="K220" s="44"/>
-      <c r="N220" s="38"/>
+      <c r="K220" s="41"/>
+      <c r="N220" s="35"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A221" s="19"/>
@@ -9015,13 +9024,13 @@
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" s="15"/>
-      <c r="G221" s="39" t="str">
+      <c r="G221" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H221" s="17"/>
-      <c r="K221" s="44"/>
-      <c r="N221" s="38"/>
+      <c r="K221" s="41"/>
+      <c r="N221" s="35"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A222" s="19"/>
@@ -9030,13 +9039,13 @@
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" s="15"/>
-      <c r="G222" s="39" t="str">
+      <c r="G222" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H222" s="17"/>
-      <c r="K222" s="44"/>
-      <c r="N222" s="38"/>
+      <c r="K222" s="41"/>
+      <c r="N222" s="35"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A223" s="19"/>
@@ -9045,13 +9054,13 @@
       <c r="D223" s="19"/>
       <c r="E223" s="19"/>
       <c r="F223" s="15"/>
-      <c r="G223" s="39" t="str">
+      <c r="G223" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H223" s="17"/>
-      <c r="K223" s="44"/>
-      <c r="N223" s="38"/>
+      <c r="K223" s="41"/>
+      <c r="N223" s="35"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A224" s="19"/>
@@ -9060,13 +9069,13 @@
       <c r="D224" s="19"/>
       <c r="E224" s="19"/>
       <c r="F224" s="15"/>
-      <c r="G224" s="39" t="str">
+      <c r="G224" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H224" s="17"/>
-      <c r="K224" s="44"/>
-      <c r="N224" s="38"/>
+      <c r="K224" s="41"/>
+      <c r="N224" s="35"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A225" s="19"/>
@@ -9075,13 +9084,13 @@
       <c r="D225" s="19"/>
       <c r="E225" s="19"/>
       <c r="F225" s="15"/>
-      <c r="G225" s="39" t="str">
+      <c r="G225" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H225" s="17"/>
-      <c r="K225" s="44"/>
-      <c r="N225" s="38"/>
+      <c r="K225" s="41"/>
+      <c r="N225" s="35"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A226" s="19"/>
@@ -9090,13 +9099,13 @@
       <c r="D226" s="19"/>
       <c r="E226" s="19"/>
       <c r="F226" s="15"/>
-      <c r="G226" s="39" t="str">
+      <c r="G226" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H226" s="17"/>
-      <c r="K226" s="44"/>
-      <c r="N226" s="38"/>
+      <c r="K226" s="41"/>
+      <c r="N226" s="35"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A227" s="19"/>
@@ -9105,13 +9114,13 @@
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" s="15"/>
-      <c r="G227" s="39" t="str">
+      <c r="G227" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H227" s="17"/>
-      <c r="K227" s="44"/>
-      <c r="N227" s="38"/>
+      <c r="K227" s="41"/>
+      <c r="N227" s="35"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A228" s="19"/>
@@ -9120,13 +9129,13 @@
       <c r="D228" s="19"/>
       <c r="E228" s="19"/>
       <c r="F228" s="15"/>
-      <c r="G228" s="39" t="str">
+      <c r="G228" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H228" s="17"/>
-      <c r="K228" s="44"/>
-      <c r="N228" s="38"/>
+      <c r="K228" s="41"/>
+      <c r="N228" s="35"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A229" s="19"/>
@@ -9135,13 +9144,13 @@
       <c r="D229" s="19"/>
       <c r="E229" s="19"/>
       <c r="F229" s="15"/>
-      <c r="G229" s="39" t="str">
+      <c r="G229" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H229" s="17"/>
-      <c r="K229" s="44"/>
-      <c r="N229" s="38"/>
+      <c r="K229" s="41"/>
+      <c r="N229" s="35"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A230" s="19"/>
@@ -9150,13 +9159,13 @@
       <c r="D230" s="19"/>
       <c r="E230" s="19"/>
       <c r="F230" s="15"/>
-      <c r="G230" s="39" t="str">
+      <c r="G230" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H230" s="17"/>
-      <c r="K230" s="44"/>
-      <c r="N230" s="38"/>
+      <c r="K230" s="41"/>
+      <c r="N230" s="35"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A231" s="19"/>
@@ -9165,13 +9174,13 @@
       <c r="D231" s="19"/>
       <c r="E231" s="19"/>
       <c r="F231" s="15"/>
-      <c r="G231" s="39" t="str">
+      <c r="G231" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H231" s="17"/>
-      <c r="K231" s="44"/>
-      <c r="N231" s="38"/>
+      <c r="K231" s="41"/>
+      <c r="N231" s="35"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A232" s="19"/>
@@ -9180,13 +9189,13 @@
       <c r="D232" s="19"/>
       <c r="E232" s="19"/>
       <c r="F232" s="15"/>
-      <c r="G232" s="39" t="str">
+      <c r="G232" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H232" s="17"/>
-      <c r="K232" s="44"/>
-      <c r="N232" s="38"/>
+      <c r="K232" s="41"/>
+      <c r="N232" s="35"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A233" s="19"/>
@@ -9195,13 +9204,13 @@
       <c r="D233" s="19"/>
       <c r="E233" s="19"/>
       <c r="F233" s="15"/>
-      <c r="G233" s="39" t="str">
+      <c r="G233" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H233" s="17"/>
-      <c r="K233" s="44"/>
-      <c r="N233" s="38"/>
+      <c r="K233" s="41"/>
+      <c r="N233" s="35"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A234" s="19"/>
@@ -9210,13 +9219,13 @@
       <c r="D234" s="19"/>
       <c r="E234" s="19"/>
       <c r="F234" s="15"/>
-      <c r="G234" s="39" t="str">
+      <c r="G234" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H234" s="17"/>
-      <c r="K234" s="44"/>
-      <c r="N234" s="38"/>
+      <c r="K234" s="41"/>
+      <c r="N234" s="35"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A235" s="19"/>
@@ -9225,13 +9234,13 @@
       <c r="D235" s="19"/>
       <c r="E235" s="19"/>
       <c r="F235" s="15"/>
-      <c r="G235" s="39" t="str">
+      <c r="G235" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H235" s="17"/>
-      <c r="K235" s="44"/>
-      <c r="N235" s="38"/>
+      <c r="K235" s="41"/>
+      <c r="N235" s="35"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A236" s="19"/>
@@ -9240,13 +9249,13 @@
       <c r="D236" s="19"/>
       <c r="E236" s="19"/>
       <c r="F236" s="15"/>
-      <c r="G236" s="39" t="str">
+      <c r="G236" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H236" s="17"/>
-      <c r="K236" s="44"/>
-      <c r="N236" s="38"/>
+      <c r="K236" s="41"/>
+      <c r="N236" s="35"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A237" s="19"/>
@@ -9255,13 +9264,13 @@
       <c r="D237" s="19"/>
       <c r="E237" s="19"/>
       <c r="F237" s="15"/>
-      <c r="G237" s="39" t="str">
+      <c r="G237" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H237" s="17"/>
-      <c r="K237" s="44"/>
-      <c r="N237" s="38"/>
+      <c r="K237" s="41"/>
+      <c r="N237" s="35"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A238" s="19"/>
@@ -9270,13 +9279,13 @@
       <c r="D238" s="19"/>
       <c r="E238" s="19"/>
       <c r="F238" s="15"/>
-      <c r="G238" s="39" t="str">
+      <c r="G238" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H238" s="17"/>
-      <c r="K238" s="44"/>
-      <c r="N238" s="38"/>
+      <c r="K238" s="41"/>
+      <c r="N238" s="35"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A239" s="19"/>
@@ -9285,13 +9294,13 @@
       <c r="D239" s="19"/>
       <c r="E239" s="19"/>
       <c r="F239" s="15"/>
-      <c r="G239" s="39" t="str">
+      <c r="G239" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H239" s="17"/>
-      <c r="K239" s="44"/>
-      <c r="N239" s="38"/>
+      <c r="K239" s="41"/>
+      <c r="N239" s="35"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A240" s="19"/>
@@ -9300,13 +9309,13 @@
       <c r="D240" s="19"/>
       <c r="E240" s="19"/>
       <c r="F240" s="15"/>
-      <c r="G240" s="39" t="str">
+      <c r="G240" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H240" s="17"/>
-      <c r="K240" s="44"/>
-      <c r="N240" s="38"/>
+      <c r="K240" s="41"/>
+      <c r="N240" s="35"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A241" s="19"/>
@@ -9315,13 +9324,13 @@
       <c r="D241" s="19"/>
       <c r="E241" s="19"/>
       <c r="F241" s="15"/>
-      <c r="G241" s="39" t="str">
+      <c r="G241" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H241" s="17"/>
-      <c r="K241" s="44"/>
-      <c r="N241" s="38"/>
+      <c r="K241" s="41"/>
+      <c r="N241" s="35"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A242" s="19"/>
@@ -9330,13 +9339,13 @@
       <c r="D242" s="19"/>
       <c r="E242" s="19"/>
       <c r="F242" s="15"/>
-      <c r="G242" s="39" t="str">
+      <c r="G242" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H242" s="17"/>
-      <c r="K242" s="44"/>
-      <c r="N242" s="38"/>
+      <c r="K242" s="41"/>
+      <c r="N242" s="35"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A243" s="19"/>
@@ -9345,13 +9354,13 @@
       <c r="D243" s="19"/>
       <c r="E243" s="19"/>
       <c r="F243" s="15"/>
-      <c r="G243" s="39" t="str">
+      <c r="G243" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H243" s="17"/>
-      <c r="K243" s="44"/>
-      <c r="N243" s="38"/>
+      <c r="K243" s="41"/>
+      <c r="N243" s="35"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" s="19"/>
@@ -9360,13 +9369,13 @@
       <c r="D244" s="19"/>
       <c r="E244" s="19"/>
       <c r="F244" s="15"/>
-      <c r="G244" s="39" t="str">
+      <c r="G244" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H244" s="17"/>
-      <c r="K244" s="44"/>
-      <c r="N244" s="38"/>
+      <c r="K244" s="41"/>
+      <c r="N244" s="35"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A245" s="19"/>
@@ -9375,13 +9384,13 @@
       <c r="D245" s="19"/>
       <c r="E245" s="19"/>
       <c r="F245" s="15"/>
-      <c r="G245" s="39" t="str">
+      <c r="G245" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H245" s="17"/>
-      <c r="K245" s="44"/>
-      <c r="N245" s="38"/>
+      <c r="K245" s="41"/>
+      <c r="N245" s="35"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A246" s="19"/>
@@ -9390,13 +9399,13 @@
       <c r="D246" s="19"/>
       <c r="E246" s="19"/>
       <c r="F246" s="15"/>
-      <c r="G246" s="39" t="str">
+      <c r="G246" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H246" s="17"/>
-      <c r="K246" s="44"/>
-      <c r="N246" s="38"/>
+      <c r="K246" s="41"/>
+      <c r="N246" s="35"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A247" s="19"/>
@@ -9405,13 +9414,13 @@
       <c r="D247" s="19"/>
       <c r="E247" s="19"/>
       <c r="F247" s="15"/>
-      <c r="G247" s="39" t="str">
+      <c r="G247" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H247" s="17"/>
-      <c r="K247" s="44"/>
-      <c r="N247" s="38"/>
+      <c r="K247" s="41"/>
+      <c r="N247" s="35"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A248" s="19"/>
@@ -9420,13 +9429,13 @@
       <c r="D248" s="19"/>
       <c r="E248" s="19"/>
       <c r="F248" s="15"/>
-      <c r="G248" s="39" t="str">
+      <c r="G248" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H248" s="17"/>
-      <c r="K248" s="44"/>
-      <c r="N248" s="38"/>
+      <c r="K248" s="41"/>
+      <c r="N248" s="35"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A249" s="19"/>
@@ -9435,13 +9444,13 @@
       <c r="D249" s="19"/>
       <c r="E249" s="19"/>
       <c r="F249" s="15"/>
-      <c r="G249" s="39" t="str">
+      <c r="G249" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H249" s="17"/>
-      <c r="K249" s="44"/>
-      <c r="N249" s="38"/>
+      <c r="K249" s="41"/>
+      <c r="N249" s="35"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A250" s="19"/>
@@ -9450,13 +9459,13 @@
       <c r="D250" s="19"/>
       <c r="E250" s="19"/>
       <c r="F250" s="15"/>
-      <c r="G250" s="39" t="str">
+      <c r="G250" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H250" s="17"/>
-      <c r="K250" s="44"/>
-      <c r="N250" s="38"/>
+      <c r="K250" s="41"/>
+      <c r="N250" s="35"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A251" s="19"/>
@@ -9465,13 +9474,13 @@
       <c r="D251" s="19"/>
       <c r="E251" s="19"/>
       <c r="F251" s="15"/>
-      <c r="G251" s="39" t="str">
+      <c r="G251" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H251" s="17"/>
-      <c r="K251" s="44"/>
-      <c r="N251" s="38"/>
+      <c r="K251" s="41"/>
+      <c r="N251" s="35"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A252" s="19"/>
@@ -9480,13 +9489,13 @@
       <c r="D252" s="19"/>
       <c r="E252" s="19"/>
       <c r="F252" s="15"/>
-      <c r="G252" s="39" t="str">
+      <c r="G252" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H252" s="17"/>
-      <c r="K252" s="44"/>
-      <c r="N252" s="38"/>
+      <c r="K252" s="41"/>
+      <c r="N252" s="35"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A253" s="19"/>
@@ -9495,13 +9504,13 @@
       <c r="D253" s="19"/>
       <c r="E253" s="19"/>
       <c r="F253" s="15"/>
-      <c r="G253" s="39" t="str">
+      <c r="G253" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H253" s="17"/>
-      <c r="K253" s="44"/>
-      <c r="N253" s="38"/>
+      <c r="K253" s="41"/>
+      <c r="N253" s="35"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A254" s="19"/>
@@ -9510,13 +9519,13 @@
       <c r="D254" s="19"/>
       <c r="E254" s="19"/>
       <c r="F254" s="15"/>
-      <c r="G254" s="39" t="str">
+      <c r="G254" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H254" s="17"/>
-      <c r="K254" s="44"/>
-      <c r="N254" s="38"/>
+      <c r="K254" s="41"/>
+      <c r="N254" s="35"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A255" s="19"/>
@@ -9525,13 +9534,13 @@
       <c r="D255" s="19"/>
       <c r="E255" s="19"/>
       <c r="F255" s="15"/>
-      <c r="G255" s="39" t="str">
+      <c r="G255" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H255" s="17"/>
-      <c r="K255" s="44"/>
-      <c r="N255" s="38"/>
+      <c r="K255" s="41"/>
+      <c r="N255" s="35"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A256" s="19"/>
@@ -9540,13 +9549,13 @@
       <c r="D256" s="19"/>
       <c r="E256" s="19"/>
       <c r="F256" s="15"/>
-      <c r="G256" s="39" t="str">
+      <c r="G256" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H256" s="17"/>
-      <c r="K256" s="44"/>
-      <c r="N256" s="38"/>
+      <c r="K256" s="41"/>
+      <c r="N256" s="35"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A257" s="19"/>
@@ -9555,13 +9564,13 @@
       <c r="D257" s="19"/>
       <c r="E257" s="19"/>
       <c r="F257" s="15"/>
-      <c r="G257" s="39" t="str">
+      <c r="G257" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H257" s="17"/>
-      <c r="K257" s="44"/>
-      <c r="N257" s="38"/>
+      <c r="K257" s="41"/>
+      <c r="N257" s="35"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A258" s="19"/>
@@ -9570,13 +9579,13 @@
       <c r="D258" s="19"/>
       <c r="E258" s="19"/>
       <c r="F258" s="15"/>
-      <c r="G258" s="39" t="str">
+      <c r="G258" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H258" s="17"/>
-      <c r="K258" s="44"/>
-      <c r="N258" s="38"/>
+      <c r="K258" s="41"/>
+      <c r="N258" s="35"/>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A259" s="19"/>
@@ -9585,13 +9594,13 @@
       <c r="D259" s="19"/>
       <c r="E259" s="19"/>
       <c r="F259" s="15"/>
-      <c r="G259" s="39" t="str">
+      <c r="G259" s="36" t="str">
         <f t="shared" ref="G259:G300" si="4">IF(ISBLANK(A259),"",A259)</f>
         <v/>
       </c>
       <c r="H259" s="17"/>
-      <c r="K259" s="44"/>
-      <c r="N259" s="38"/>
+      <c r="K259" s="41"/>
+      <c r="N259" s="35"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A260" s="19"/>
@@ -9600,13 +9609,13 @@
       <c r="D260" s="19"/>
       <c r="E260" s="19"/>
       <c r="F260" s="15"/>
-      <c r="G260" s="39" t="str">
+      <c r="G260" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H260" s="17"/>
-      <c r="K260" s="44"/>
-      <c r="N260" s="38"/>
+      <c r="K260" s="41"/>
+      <c r="N260" s="35"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A261" s="19"/>
@@ -9615,13 +9624,13 @@
       <c r="D261" s="19"/>
       <c r="E261" s="19"/>
       <c r="F261" s="15"/>
-      <c r="G261" s="39" t="str">
+      <c r="G261" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H261" s="17"/>
-      <c r="K261" s="44"/>
-      <c r="N261" s="38"/>
+      <c r="K261" s="41"/>
+      <c r="N261" s="35"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A262" s="19"/>
@@ -9630,13 +9639,13 @@
       <c r="D262" s="19"/>
       <c r="E262" s="19"/>
       <c r="F262" s="15"/>
-      <c r="G262" s="39" t="str">
+      <c r="G262" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H262" s="17"/>
-      <c r="K262" s="44"/>
-      <c r="N262" s="38"/>
+      <c r="K262" s="41"/>
+      <c r="N262" s="35"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A263" s="19"/>
@@ -9645,13 +9654,13 @@
       <c r="D263" s="19"/>
       <c r="E263" s="19"/>
       <c r="F263" s="15"/>
-      <c r="G263" s="39" t="str">
+      <c r="G263" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H263" s="17"/>
-      <c r="K263" s="44"/>
-      <c r="N263" s="38"/>
+      <c r="K263" s="41"/>
+      <c r="N263" s="35"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A264" s="19"/>
@@ -9660,13 +9669,13 @@
       <c r="D264" s="19"/>
       <c r="E264" s="19"/>
       <c r="F264" s="15"/>
-      <c r="G264" s="39" t="str">
+      <c r="G264" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H264" s="17"/>
-      <c r="K264" s="44"/>
-      <c r="N264" s="38"/>
+      <c r="K264" s="41"/>
+      <c r="N264" s="35"/>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A265" s="19"/>
@@ -9675,13 +9684,13 @@
       <c r="D265" s="19"/>
       <c r="E265" s="19"/>
       <c r="F265" s="15"/>
-      <c r="G265" s="39" t="str">
+      <c r="G265" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H265" s="17"/>
-      <c r="K265" s="44"/>
-      <c r="N265" s="38"/>
+      <c r="K265" s="41"/>
+      <c r="N265" s="35"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A266" s="19"/>
@@ -9690,13 +9699,13 @@
       <c r="D266" s="19"/>
       <c r="E266" s="19"/>
       <c r="F266" s="15"/>
-      <c r="G266" s="39" t="str">
+      <c r="G266" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H266" s="17"/>
-      <c r="K266" s="44"/>
-      <c r="N266" s="38"/>
+      <c r="K266" s="41"/>
+      <c r="N266" s="35"/>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A267" s="19"/>
@@ -9705,13 +9714,13 @@
       <c r="D267" s="19"/>
       <c r="E267" s="19"/>
       <c r="F267" s="15"/>
-      <c r="G267" s="39" t="str">
+      <c r="G267" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H267" s="17"/>
-      <c r="K267" s="44"/>
-      <c r="N267" s="38"/>
+      <c r="K267" s="41"/>
+      <c r="N267" s="35"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A268" s="19"/>
@@ -9720,13 +9729,13 @@
       <c r="D268" s="19"/>
       <c r="E268" s="19"/>
       <c r="F268" s="15"/>
-      <c r="G268" s="39" t="str">
+      <c r="G268" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H268" s="17"/>
-      <c r="K268" s="44"/>
-      <c r="N268" s="38"/>
+      <c r="K268" s="41"/>
+      <c r="N268" s="35"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A269" s="19"/>
@@ -9735,13 +9744,13 @@
       <c r="D269" s="19"/>
       <c r="E269" s="19"/>
       <c r="F269" s="15"/>
-      <c r="G269" s="39" t="str">
+      <c r="G269" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H269" s="17"/>
-      <c r="K269" s="44"/>
-      <c r="N269" s="38"/>
+      <c r="K269" s="41"/>
+      <c r="N269" s="35"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A270" s="19"/>
@@ -9750,13 +9759,13 @@
       <c r="D270" s="19"/>
       <c r="E270" s="19"/>
       <c r="F270" s="15"/>
-      <c r="G270" s="39" t="str">
+      <c r="G270" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H270" s="17"/>
-      <c r="K270" s="44"/>
-      <c r="N270" s="38"/>
+      <c r="K270" s="41"/>
+      <c r="N270" s="35"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A271" s="19"/>
@@ -9765,13 +9774,13 @@
       <c r="D271" s="19"/>
       <c r="E271" s="19"/>
       <c r="F271" s="15"/>
-      <c r="G271" s="39" t="str">
+      <c r="G271" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H271" s="17"/>
-      <c r="K271" s="44"/>
-      <c r="N271" s="38"/>
+      <c r="K271" s="41"/>
+      <c r="N271" s="35"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A272" s="19"/>
@@ -9780,13 +9789,13 @@
       <c r="D272" s="19"/>
       <c r="E272" s="19"/>
       <c r="F272" s="15"/>
-      <c r="G272" s="39" t="str">
+      <c r="G272" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H272" s="17"/>
-      <c r="K272" s="44"/>
-      <c r="N272" s="38"/>
+      <c r="K272" s="41"/>
+      <c r="N272" s="35"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A273" s="19"/>
@@ -9795,13 +9804,13 @@
       <c r="D273" s="19"/>
       <c r="E273" s="19"/>
       <c r="F273" s="15"/>
-      <c r="G273" s="39" t="str">
+      <c r="G273" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H273" s="17"/>
-      <c r="K273" s="44"/>
-      <c r="N273" s="38"/>
+      <c r="K273" s="41"/>
+      <c r="N273" s="35"/>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A274" s="19"/>
@@ -9810,13 +9819,13 @@
       <c r="D274" s="19"/>
       <c r="E274" s="19"/>
       <c r="F274" s="15"/>
-      <c r="G274" s="39" t="str">
+      <c r="G274" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H274" s="17"/>
-      <c r="K274" s="44"/>
-      <c r="N274" s="38"/>
+      <c r="K274" s="41"/>
+      <c r="N274" s="35"/>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A275" s="19"/>
@@ -9825,13 +9834,13 @@
       <c r="D275" s="19"/>
       <c r="E275" s="19"/>
       <c r="F275" s="15"/>
-      <c r="G275" s="39" t="str">
+      <c r="G275" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H275" s="17"/>
-      <c r="K275" s="44"/>
-      <c r="N275" s="38"/>
+      <c r="K275" s="41"/>
+      <c r="N275" s="35"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A276" s="19"/>
@@ -9840,13 +9849,13 @@
       <c r="D276" s="19"/>
       <c r="E276" s="19"/>
       <c r="F276" s="15"/>
-      <c r="G276" s="39" t="str">
+      <c r="G276" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H276" s="17"/>
-      <c r="K276" s="44"/>
-      <c r="N276" s="38"/>
+      <c r="K276" s="41"/>
+      <c r="N276" s="35"/>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A277" s="19"/>
@@ -9855,13 +9864,13 @@
       <c r="D277" s="19"/>
       <c r="E277" s="19"/>
       <c r="F277" s="15"/>
-      <c r="G277" s="39" t="str">
+      <c r="G277" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H277" s="17"/>
-      <c r="K277" s="44"/>
-      <c r="N277" s="38"/>
+      <c r="K277" s="41"/>
+      <c r="N277" s="35"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A278" s="19"/>
@@ -9870,13 +9879,13 @@
       <c r="D278" s="19"/>
       <c r="E278" s="19"/>
       <c r="F278" s="15"/>
-      <c r="G278" s="39" t="str">
+      <c r="G278" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H278" s="17"/>
-      <c r="K278" s="44"/>
-      <c r="N278" s="38"/>
+      <c r="K278" s="41"/>
+      <c r="N278" s="35"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A279" s="19"/>
@@ -9885,13 +9894,13 @@
       <c r="D279" s="19"/>
       <c r="E279" s="19"/>
       <c r="F279" s="15"/>
-      <c r="G279" s="39" t="str">
+      <c r="G279" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H279" s="17"/>
-      <c r="K279" s="44"/>
-      <c r="N279" s="38"/>
+      <c r="K279" s="41"/>
+      <c r="N279" s="35"/>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A280" s="19"/>
@@ -9900,13 +9909,13 @@
       <c r="D280" s="19"/>
       <c r="E280" s="19"/>
       <c r="F280" s="15"/>
-      <c r="G280" s="39" t="str">
+      <c r="G280" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H280" s="17"/>
-      <c r="K280" s="44"/>
-      <c r="N280" s="38"/>
+      <c r="K280" s="41"/>
+      <c r="N280" s="35"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A281" s="19"/>
@@ -9915,13 +9924,13 @@
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
       <c r="F281" s="15"/>
-      <c r="G281" s="39" t="str">
+      <c r="G281" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H281" s="17"/>
-      <c r="K281" s="44"/>
-      <c r="N281" s="38"/>
+      <c r="K281" s="41"/>
+      <c r="N281" s="35"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A282" s="19"/>
@@ -9930,13 +9939,13 @@
       <c r="D282" s="19"/>
       <c r="E282" s="19"/>
       <c r="F282" s="15"/>
-      <c r="G282" s="39" t="str">
+      <c r="G282" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H282" s="17"/>
-      <c r="K282" s="44"/>
-      <c r="N282" s="38"/>
+      <c r="K282" s="41"/>
+      <c r="N282" s="35"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A283" s="19"/>
@@ -9945,13 +9954,13 @@
       <c r="D283" s="19"/>
       <c r="E283" s="19"/>
       <c r="F283" s="15"/>
-      <c r="G283" s="39" t="str">
+      <c r="G283" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H283" s="17"/>
-      <c r="K283" s="44"/>
-      <c r="N283" s="38"/>
+      <c r="K283" s="41"/>
+      <c r="N283" s="35"/>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A284" s="19"/>
@@ -9960,13 +9969,13 @@
       <c r="D284" s="19"/>
       <c r="E284" s="19"/>
       <c r="F284" s="15"/>
-      <c r="G284" s="39" t="str">
+      <c r="G284" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H284" s="17"/>
-      <c r="K284" s="44"/>
-      <c r="N284" s="38"/>
+      <c r="K284" s="41"/>
+      <c r="N284" s="35"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A285" s="19"/>
@@ -9975,13 +9984,13 @@
       <c r="D285" s="19"/>
       <c r="E285" s="19"/>
       <c r="F285" s="15"/>
-      <c r="G285" s="39" t="str">
+      <c r="G285" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H285" s="17"/>
-      <c r="K285" s="44"/>
-      <c r="N285" s="38"/>
+      <c r="K285" s="41"/>
+      <c r="N285" s="35"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A286" s="19"/>
@@ -9990,13 +9999,13 @@
       <c r="D286" s="19"/>
       <c r="E286" s="19"/>
       <c r="F286" s="15"/>
-      <c r="G286" s="39" t="str">
+      <c r="G286" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H286" s="17"/>
-      <c r="K286" s="44"/>
-      <c r="N286" s="38"/>
+      <c r="K286" s="41"/>
+      <c r="N286" s="35"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A287" s="19"/>
@@ -10005,13 +10014,13 @@
       <c r="D287" s="19"/>
       <c r="E287" s="19"/>
       <c r="F287" s="15"/>
-      <c r="G287" s="39" t="str">
+      <c r="G287" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H287" s="17"/>
-      <c r="K287" s="44"/>
-      <c r="N287" s="38"/>
+      <c r="K287" s="41"/>
+      <c r="N287" s="35"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A288" s="19"/>
@@ -10020,13 +10029,13 @@
       <c r="D288" s="19"/>
       <c r="E288" s="19"/>
       <c r="F288" s="15"/>
-      <c r="G288" s="39" t="str">
+      <c r="G288" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H288" s="17"/>
-      <c r="K288" s="44"/>
-      <c r="N288" s="38"/>
+      <c r="K288" s="41"/>
+      <c r="N288" s="35"/>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A289" s="19"/>
@@ -10035,13 +10044,13 @@
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
       <c r="F289" s="15"/>
-      <c r="G289" s="39" t="str">
+      <c r="G289" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H289" s="17"/>
-      <c r="K289" s="44"/>
-      <c r="N289" s="38"/>
+      <c r="K289" s="41"/>
+      <c r="N289" s="35"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A290" s="19"/>
@@ -10050,13 +10059,13 @@
       <c r="D290" s="19"/>
       <c r="E290" s="19"/>
       <c r="F290" s="15"/>
-      <c r="G290" s="39" t="str">
+      <c r="G290" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H290" s="17"/>
-      <c r="K290" s="44"/>
-      <c r="N290" s="38"/>
+      <c r="K290" s="41"/>
+      <c r="N290" s="35"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A291" s="19"/>
@@ -10065,13 +10074,13 @@
       <c r="D291" s="19"/>
       <c r="E291" s="19"/>
       <c r="F291" s="15"/>
-      <c r="G291" s="39" t="str">
+      <c r="G291" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H291" s="17"/>
-      <c r="K291" s="44"/>
-      <c r="N291" s="38"/>
+      <c r="K291" s="41"/>
+      <c r="N291" s="35"/>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A292" s="19"/>
@@ -10080,13 +10089,13 @@
       <c r="D292" s="19"/>
       <c r="E292" s="19"/>
       <c r="F292" s="15"/>
-      <c r="G292" s="39" t="str">
+      <c r="G292" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H292" s="17"/>
-      <c r="K292" s="44"/>
-      <c r="N292" s="38"/>
+      <c r="K292" s="41"/>
+      <c r="N292" s="35"/>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A293" s="19"/>
@@ -10095,13 +10104,13 @@
       <c r="D293" s="19"/>
       <c r="E293" s="19"/>
       <c r="F293" s="15"/>
-      <c r="G293" s="39" t="str">
+      <c r="G293" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H293" s="17"/>
-      <c r="K293" s="44"/>
-      <c r="N293" s="38"/>
+      <c r="K293" s="41"/>
+      <c r="N293" s="35"/>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A294" s="19"/>
@@ -10110,13 +10119,13 @@
       <c r="D294" s="19"/>
       <c r="E294" s="19"/>
       <c r="F294" s="15"/>
-      <c r="G294" s="39" t="str">
+      <c r="G294" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H294" s="17"/>
-      <c r="K294" s="44"/>
-      <c r="N294" s="38"/>
+      <c r="K294" s="41"/>
+      <c r="N294" s="35"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A295" s="19"/>
@@ -10125,13 +10134,13 @@
       <c r="D295" s="19"/>
       <c r="E295" s="19"/>
       <c r="F295" s="15"/>
-      <c r="G295" s="39" t="str">
+      <c r="G295" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H295" s="17"/>
-      <c r="K295" s="44"/>
-      <c r="N295" s="38"/>
+      <c r="K295" s="41"/>
+      <c r="N295" s="35"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A296" s="19"/>
@@ -10140,13 +10149,13 @@
       <c r="D296" s="19"/>
       <c r="E296" s="19"/>
       <c r="F296" s="15"/>
-      <c r="G296" s="39" t="str">
+      <c r="G296" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H296" s="17"/>
-      <c r="K296" s="44"/>
-      <c r="N296" s="38"/>
+      <c r="K296" s="41"/>
+      <c r="N296" s="35"/>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A297" s="19"/>
@@ -10155,13 +10164,13 @@
       <c r="D297" s="19"/>
       <c r="E297" s="19"/>
       <c r="F297" s="15"/>
-      <c r="G297" s="39" t="str">
+      <c r="G297" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H297" s="17"/>
-      <c r="K297" s="44"/>
-      <c r="N297" s="38"/>
+      <c r="K297" s="41"/>
+      <c r="N297" s="35"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A298" s="19"/>
@@ -10170,13 +10179,13 @@
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
       <c r="F298" s="15"/>
-      <c r="G298" s="39" t="str">
+      <c r="G298" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H298" s="17"/>
-      <c r="K298" s="44"/>
-      <c r="N298" s="38"/>
+      <c r="K298" s="41"/>
+      <c r="N298" s="35"/>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A299" s="19"/>
@@ -10185,13 +10194,13 @@
       <c r="D299" s="19"/>
       <c r="E299" s="19"/>
       <c r="F299" s="15"/>
-      <c r="G299" s="39" t="str">
+      <c r="G299" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H299" s="17"/>
-      <c r="K299" s="44"/>
-      <c r="N299" s="38"/>
+      <c r="K299" s="41"/>
+      <c r="N299" s="35"/>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A300" s="19"/>
@@ -10200,123 +10209,123 @@
       <c r="D300" s="19"/>
       <c r="E300" s="19"/>
       <c r="F300" s="15"/>
-      <c r="G300" s="39" t="str">
+      <c r="G300" s="36" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H300" s="17"/>
-      <c r="K300" s="44"/>
-      <c r="N300" s="38"/>
+      <c r="K300" s="41"/>
+      <c r="N300" s="35"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A301" s="45"/>
-      <c r="B301" s="45"/>
-      <c r="C301" s="45"/>
-      <c r="D301" s="45"/>
-      <c r="E301" s="45"/>
-      <c r="F301" s="47"/>
-      <c r="H301" s="48"/>
-      <c r="K301" s="48"/>
-      <c r="N301" s="49"/>
+      <c r="A301" s="42"/>
+      <c r="B301" s="42"/>
+      <c r="C301" s="42"/>
+      <c r="D301" s="42"/>
+      <c r="E301" s="42"/>
+      <c r="F301" s="44"/>
+      <c r="H301" s="45"/>
+      <c r="K301" s="45"/>
+      <c r="N301" s="46"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A302" s="45"/>
-      <c r="B302" s="45"/>
-      <c r="C302" s="45"/>
-      <c r="D302" s="45"/>
-      <c r="E302" s="45"/>
-      <c r="F302" s="47"/>
-      <c r="H302" s="48"/>
-      <c r="K302" s="48"/>
-      <c r="N302" s="49"/>
+      <c r="A302" s="42"/>
+      <c r="B302" s="42"/>
+      <c r="C302" s="42"/>
+      <c r="D302" s="42"/>
+      <c r="E302" s="42"/>
+      <c r="F302" s="44"/>
+      <c r="H302" s="45"/>
+      <c r="K302" s="45"/>
+      <c r="N302" s="46"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A303" s="45"/>
-      <c r="B303" s="45"/>
-      <c r="C303" s="45"/>
-      <c r="D303" s="45"/>
-      <c r="E303" s="45"/>
-      <c r="F303" s="47"/>
-      <c r="H303" s="48"/>
-      <c r="K303" s="48"/>
-      <c r="N303" s="49"/>
+      <c r="A303" s="42"/>
+      <c r="B303" s="42"/>
+      <c r="C303" s="42"/>
+      <c r="D303" s="42"/>
+      <c r="E303" s="42"/>
+      <c r="F303" s="44"/>
+      <c r="H303" s="45"/>
+      <c r="K303" s="45"/>
+      <c r="N303" s="46"/>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A304" s="45"/>
-      <c r="B304" s="45"/>
-      <c r="C304" s="45"/>
-      <c r="D304" s="45"/>
-      <c r="E304" s="45"/>
-      <c r="F304" s="47"/>
-      <c r="H304" s="48"/>
-      <c r="K304" s="48"/>
-      <c r="N304" s="49"/>
+      <c r="A304" s="42"/>
+      <c r="B304" s="42"/>
+      <c r="C304" s="42"/>
+      <c r="D304" s="42"/>
+      <c r="E304" s="42"/>
+      <c r="F304" s="44"/>
+      <c r="H304" s="45"/>
+      <c r="K304" s="45"/>
+      <c r="N304" s="46"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A305" s="45"/>
-      <c r="B305" s="45"/>
-      <c r="C305" s="45"/>
-      <c r="D305" s="45"/>
-      <c r="E305" s="45"/>
-      <c r="F305" s="47"/>
-      <c r="H305" s="48"/>
-      <c r="K305" s="48"/>
-      <c r="N305" s="49"/>
+      <c r="A305" s="42"/>
+      <c r="B305" s="42"/>
+      <c r="C305" s="42"/>
+      <c r="D305" s="42"/>
+      <c r="E305" s="42"/>
+      <c r="F305" s="44"/>
+      <c r="H305" s="45"/>
+      <c r="K305" s="45"/>
+      <c r="N305" s="46"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A306" s="45"/>
-      <c r="B306" s="45"/>
-      <c r="C306" s="45"/>
-      <c r="D306" s="45"/>
-      <c r="E306" s="45"/>
-      <c r="F306" s="47"/>
-      <c r="H306" s="48"/>
-      <c r="K306" s="48"/>
-      <c r="N306" s="49"/>
+      <c r="A306" s="42"/>
+      <c r="B306" s="42"/>
+      <c r="C306" s="42"/>
+      <c r="D306" s="42"/>
+      <c r="E306" s="42"/>
+      <c r="F306" s="44"/>
+      <c r="H306" s="45"/>
+      <c r="K306" s="45"/>
+      <c r="N306" s="46"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A307" s="45"/>
-      <c r="B307" s="45"/>
-      <c r="C307" s="45"/>
-      <c r="D307" s="45"/>
-      <c r="E307" s="45"/>
-      <c r="F307" s="47"/>
-      <c r="H307" s="48"/>
-      <c r="K307" s="48"/>
-      <c r="N307" s="49"/>
+      <c r="A307" s="42"/>
+      <c r="B307" s="42"/>
+      <c r="C307" s="42"/>
+      <c r="D307" s="42"/>
+      <c r="E307" s="42"/>
+      <c r="F307" s="44"/>
+      <c r="H307" s="45"/>
+      <c r="K307" s="45"/>
+      <c r="N307" s="46"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A308" s="45"/>
-      <c r="B308" s="45"/>
-      <c r="C308" s="45"/>
-      <c r="D308" s="45"/>
-      <c r="E308" s="45"/>
-      <c r="F308" s="47"/>
-      <c r="H308" s="48"/>
-      <c r="K308" s="48"/>
-      <c r="N308" s="49"/>
+      <c r="A308" s="42"/>
+      <c r="B308" s="42"/>
+      <c r="C308" s="42"/>
+      <c r="D308" s="42"/>
+      <c r="E308" s="42"/>
+      <c r="F308" s="44"/>
+      <c r="H308" s="45"/>
+      <c r="K308" s="45"/>
+      <c r="N308" s="46"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A309" s="45"/>
-      <c r="B309" s="45"/>
-      <c r="C309" s="45"/>
-      <c r="D309" s="45"/>
-      <c r="E309" s="45"/>
-      <c r="F309" s="47"/>
-      <c r="H309" s="48"/>
-      <c r="K309" s="48"/>
-      <c r="N309" s="49"/>
+      <c r="A309" s="42"/>
+      <c r="B309" s="42"/>
+      <c r="C309" s="42"/>
+      <c r="D309" s="42"/>
+      <c r="E309" s="42"/>
+      <c r="F309" s="44"/>
+      <c r="H309" s="45"/>
+      <c r="K309" s="45"/>
+      <c r="N309" s="46"/>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A310" s="45"/>
-      <c r="B310" s="45"/>
-      <c r="C310" s="45"/>
-      <c r="D310" s="45"/>
-      <c r="E310" s="45"/>
-      <c r="F310" s="47"/>
-      <c r="H310" s="48"/>
-      <c r="K310" s="48"/>
-      <c r="N310" s="49"/>
+      <c r="A310" s="42"/>
+      <c r="B310" s="42"/>
+      <c r="C310" s="42"/>
+      <c r="D310" s="42"/>
+      <c r="E310" s="42"/>
+      <c r="F310" s="44"/>
+      <c r="H310" s="45"/>
+      <c r="K310" s="45"/>
+      <c r="N310" s="46"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -10337,7 +10346,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
